--- a/xlsx/社会学_intext.xlsx
+++ b/xlsx/社会学_intext.xlsx
@@ -15,2463 +15,2373 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="789">
   <si>
     <t>社会学</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%AD%A6%E7%90%86%E8%AE%BA</t>
+  </si>
+  <si>
+    <t>社会学理论</t>
+  </si>
+  <si>
+    <t>政策_政策_政治学_社会学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>社会学史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%9E%E8%AF%81%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>实证主义</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Antipositivism</t>
+  </si>
+  <si>
+    <t>en-Antipositivism</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%93%E6%9E%84%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>结构主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%B2%E7%AA%81%E7%90%86%E8%AE%BA</t>
+  </si>
+  <si>
+    <t>冲突理论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%B1%82%E7%90%86%E8%AE%BA</t>
+  </si>
+  <si>
+    <t>中层理论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E7%90%86%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>数理社会学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%89%B9%E5%88%A4%E7%90%86%E8%AE%BA</t>
+  </si>
+  <si>
+    <t>批判理论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E6%A7%8B%E8%88%87%E8%83%BD%E5%8B%95%E6%80%A7</t>
+  </si>
+  <si>
+    <t>结构与能动性</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E8%B0%83%E6%9F%A5</t>
+  </si>
+  <si>
+    <t>社会调查</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%9A%E9%87%8F%E7%A0%94%E7%A9%B6</t>
+  </si>
+  <si>
+    <t>定量研究</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%9A%E6%80%A7%E7%A0%94%E7%A9%B6</t>
+  </si>
+  <si>
+    <t>定性研究</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E7%AE%97%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>计算社会学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E8%AA%8C</t>
+  </si>
+  <si>
+    <t>民族志</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E8%AE%8A%E9%81%B7</t>
+  </si>
+  <si>
+    <t>社会变迁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E5%B8%82%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>都市社会学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E9%98%B6%E5%B1%82</t>
+  </si>
+  <si>
+    <t>社会阶层</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8A%AF%E7%BD%AA%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>犯罪学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>文化社会学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%96%87%E5%8C%96</t>
+  </si>
+  <si>
+    <t>反文化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E5%B1%95%E7%90%86%E8%AE%BA</t>
+  </si>
+  <si>
+    <t>发展理论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E8%BB%8C%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>越轨社会学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>人口学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>教育社会学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%8C%96</t>
+  </si>
+  <si>
+    <t>社会化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%8D%E5%B9%B3%E7%AD%89</t>
+  </si>
+  <si>
+    <t>社会不平等</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>经济社会学</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Environmental_sociology</t>
+  </si>
+  <si>
+    <t>en-Environmental sociology</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Sociology_of_the_family</t>
+  </si>
+  <si>
+    <t>en-Sociology of the family</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%AB%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>性别社会学</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Sociology_of_health_and_illness</t>
+  </si>
+  <si>
+    <t>en-Sociology of health and illness</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>工业社会学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E9%9A%9B%E7%B6%B2%E8%B7%AF%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>网际网路社会学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AF%86%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>知识社会学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>法律社会学</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Sociology_of_literature</t>
+  </si>
+  <si>
+    <t>en-Sociology of literature</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%BB%E7%96%97%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>医疗社会学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E6%B5%81%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>社会流动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E9%81%8B%E5%8B%95</t>
+  </si>
+  <si>
+    <t>社会运动</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Organizational_theory</t>
+  </si>
+  <si>
+    <t>en-Organizational theory</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>政治社会学</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Sociology_of_race_and_ethnic_relations</t>
+  </si>
+  <si>
+    <t>en-Sociology of race and ethnic relations</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%84%89%E6%9D%91%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>乡村社会学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>宗教社会学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%93%E8%82%B2%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>体育社会学</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Sociology_of_scientific_knowledge</t>
+  </si>
+  <si>
+    <t>en-Sociology of scientific knowledge</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Military_sociology</t>
+  </si>
+  <si>
+    <t>en-Military sociology</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%A0%E6%92%AD%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>传播社会学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%80%A7%E5%8C%96_(%E7%A4%BE%E4%BC%9A%E5%AD%A6)</t>
+  </si>
+  <si>
+    <t>理性化 (社会学)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%A4%E9%AB%94</t>
+  </si>
+  <si>
+    <t>群体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E4%BF%97%E5%8C%96</t>
+  </si>
+  <si>
+    <t>世俗化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E6%80%A7%E7%BD%91%E7%BB%9C</t>
+  </si>
+  <si>
+    <t>社会性网络</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%BC%81%E6%A5%AD</t>
+  </si>
+  <si>
+    <t>社会企业</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%BF%83%E7%90%86%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>社会心理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%9C%B0%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>经济地理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E6%80%9D%E6%83%B3%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>经济思想史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E4%BA%BA%E7%B1%BB%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>文化人类学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>社会人类学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E7%94%9F%E7%89%A9%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>社会生物学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E7%A0%94%E7%A9%B6</t>
+  </si>
+  <si>
+    <t>文化研究</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%AB%E7%A0%94%E7%A9%B6</t>
+  </si>
+  <si>
+    <t>性别研究</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%9C%B0%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>社会地理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E8%AF%AD%E8%A8%80%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>社会语言学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AA%92%E9%AB%94%E7%A0%94%E7%A9%B6</t>
+  </si>
+  <si>
+    <t>媒体研究</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%93%B2%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>社会哲学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%B5%B1%E8%A8%88%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>社会统计学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B3%BB%E7%BB%9F%E7%A7%91%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>系统科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%AB%94%E7%B3%BB%E7%90%86%E8%AB%96</t>
+  </si>
+  <si>
+    <t>世界体系理论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>Template talk-社会学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83</t>
+  </si>
+  <si>
+    <t>社会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E7%A7%91</t>
+  </si>
+  <si>
+    <t>学科</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E9%A9%97%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>经验主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%89%B9%E5%88%A4%E7%90%86%E8%AB%96</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E7%A4%BE%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>人类社会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%B5%90%E6%A7%8B</t>
+  </si>
+  <si>
+    <t>社会结构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E6%B4%BB%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>社会活动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%A6%E9%97%AE</t>
+  </si>
+  <si>
+    <t>学问</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%A6%8F%E5%88%A9</t>
+  </si>
+  <si>
+    <t>社会福利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%9A%9B%E9%97%9C%E4%BF%82</t>
+  </si>
+  <si>
+    <t>人际关系</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E9%AB%94</t>
+  </si>
+  <si>
+    <t>本体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%95%8F%E9%A1%8C</t>
+  </si>
+  <si>
+    <t>社会问题</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E6%8E%A7%E5%88%B6</t>
+  </si>
+  <si>
+    <t>社会控制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>政治学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>人类学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>心理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%A7%91%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>社会科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%88%86%E5%B1%A4</t>
+  </si>
+  <si>
+    <t>社会分层</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E9%9A%8E%E7%B4%9A</t>
+  </si>
+  <si>
+    <t>社会阶级</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E6%B5%81%E5%8B%95</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AD%B7%E7%90%86</t>
+  </si>
+  <si>
+    <t>护理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B</t>
+  </si>
+  <si>
+    <t>军事</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%91%E4%BA%8B</t>
+  </si>
+  <si>
+    <t>刑事</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%B6%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>制度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E9%9A%9B%E7%B6%B2%E8%B7%AF</t>
+  </si>
+  <si>
+    <t>网际网路</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80</t>
+  </si>
+  <si>
+    <t>语言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E9%87%8B%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>解释学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>哲学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AA%E4%BD%93%E4%B8%BA%E6%9C%AC%E6%A8%A1%E5%9E%8B</t>
+  </si>
+  <si>
+    <t>个体为本模型</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BA%A4%E7%B6%B2%E8%B7%AF</t>
+  </si>
+  <si>
+    <t>社交网路</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E6%80%A7</t>
+  </si>
+  <si>
+    <t>现代性</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%B4%BB</t>
+  </si>
+  <si>
+    <t>生活</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%8F%A4%E6%96%AF%E7%89%B9%C2%B7%E5%AD%94%E5%BE%B7</t>
+  </si>
+  <si>
+    <t>奥古斯特·孔德</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>神学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E5%8A%9B</t>
+  </si>
+  <si>
+    <t>武力</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%80%A7</t>
+  </si>
+  <si>
+    <t>理性</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%88%B6%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>社会制度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B6%82%E7%88%BE%E5%B9%B9</t>
+  </si>
+  <si>
+    <t>涂尔干</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E5%85%8B%E7%A6%8F%E5%AD%B8%E6%B4%BE</t>
+  </si>
+  <si>
+    <t>法兰克福学派</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E5%85%8B%E6%B5%B7%E9%BB%98</t>
+  </si>
+  <si>
+    <t>霍克海默</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A4%9A%E8%AB%BE</t>
+  </si>
+  <si>
+    <t>阿多诺</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%E6%96%AF%C2%B7%E9%9F%A6%E4%BC%AF</t>
+  </si>
+  <si>
+    <t>马克斯·韦伯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E5%A5%A5%E5%B0%94%E6%A0%BC%C2%B7%E9%BD%90%E7%BE%8E%E5%B0%94</t>
+  </si>
+  <si>
+    <t>格奥尔格·齐美尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>资本主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%97%9D%E8%A1%93</t>
+  </si>
+  <si>
+    <t>艺术</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BC%AF%E7%91%AA%E6%96%AF</t>
+  </si>
+  <si>
+    <t>哈伯玛斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%93%E6%9E%84%E5%8A%9F%E8%83%BD%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>结构功能主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E8%B1%A1%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>现象学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E6%80%9D</t>
+  </si>
+  <si>
+    <t>马克思</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E7%94%A2%E9%9A%8E%E7%B4%9A</t>
+  </si>
+  <si>
+    <t>资产阶级</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E7%94%A2%E9%9A%8E%E7%B4%9A</t>
+  </si>
+  <si>
+    <t>无产阶级</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>革命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>政治经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A1%9D%E7%AA%81%E8%AB%96</t>
+  </si>
+  <si>
+    <t>冲突论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%8D%E6%97%8F</t>
+  </si>
+  <si>
+    <t>种族</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F</t>
+  </si>
+  <si>
+    <t>民族</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%B6%E7%BA%A7</t>
+  </si>
+  <si>
+    <t>阶级</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%AB</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E5%BA%AD</t>
+  </si>
+  <si>
+    <t>家庭</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A6%BB%E5%A9%9A</t>
+  </si>
+  <si>
+    <t>离婚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%8F%98%E8%BF%81</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7F%C2%B7%E6%8B%89%E6%89%8E%E6%96%AF%E8%8F%B2%E7%88%BE%E5%BE%B7</t>
+  </si>
+  <si>
+    <t>保罗·F·拉扎斯菲尔德</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%86%E5%8F%B2%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>历史社会学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%83%E8%88%87%E8%A7%80%E5%AF%9F</t>
+  </si>
+  <si>
+    <t>参与观察</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%AE%E6%A0%B9%E7%90%86%E8%AB%96</t>
+  </si>
+  <si>
+    <t>紮根理论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%AE%B9%E5%88%86%E6%9E%90</t>
+  </si>
+  <si>
+    <t>内容分析</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BD%BC%E5%BE%97%C2%B7%E6%9F%8F%E6%A0%BC_(%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E5%AD%B8%E5%AE%B6)</t>
+  </si>
+  <si>
+    <t>彼得·柏格 (美国社会学家)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8%E7%9A%84%E6%AD%B7%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>社会学的历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%80%BB%E8%BE%91</t>
+  </si>
+  <si>
+    <t>逻辑</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E6%96%87%E5%8C%96</t>
+  </si>
+  <si>
+    <t>西方文化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%8B%89%E5%9B%BE</t>
+  </si>
+  <si>
+    <t>柏拉图</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%AB%E6%97%A5%E5%AE%A1%E5%88%A4%E4%B9%A6</t>
+  </si>
+  <si>
+    <t>末日审判书</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%BA%AA</t>
+  </si>
+  <si>
+    <t>中世纪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0</t>
+  </si>
+  <si>
+    <t>伊斯兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>社会学家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%9D%9E</t>
+  </si>
+  <si>
+    <t>北非</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>阿拉伯人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%AC%C2%B7%E8%B5%AB%E5%8B%92%E6%95%A6</t>
+  </si>
+  <si>
+    <t>伊本·赫勒敦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2%E7%B7%92%E8%AB%96</t>
+  </si>
+  <si>
+    <t>历史绪论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%83%E4%B8%96%E7%BA%AA</t>
+  </si>
+  <si>
+    <t>十七世纪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%9B%E5%8D%A1%E5%84%BF</t>
+  </si>
+  <si>
+    <t>笛卡儿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%80%A7%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>理性主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9C%9F%E7%90%86</t>
+  </si>
+  <si>
+    <t>真理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>拉丁语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>希腊语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>法国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%A3%E6%96%87%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>散文家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E9%A9%AC%E7%BA%BD%E5%9F%83%E5%B0%94-%E7%BA%A6%E7%91%9F%E5%A4%AB%C2%B7%E8%A5%BF%E5%93%80%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>埃马纽埃尔-约瑟夫·西哀士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6%E5%93%B2%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>科学哲学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%97%B6</t>
+  </si>
+  <si>
+    <t>比利时</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%9F%E8%AE%A1%E5%AD%A6%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>统计学家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%97%E4%BC%AF%C2%B7%E9%98%BF%E9%81%93%E5%A4%AB%C2%B7%E9%9B%85%E5%85%8B%C2%B7%E5%87%AF%E7%89%B9%E5%8B%92</t>
+  </si>
+  <si>
+    <t>朗伯·阿道夫·雅克·凯特勒</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%86%E5%8F%B2%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>历史学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%A4%A7%E9%9D%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>法国大革命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>英国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%B8%9A%E9%9D%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>工业革命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%84%E6%9C%AC%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E4%BA%A7%E5%8A%9B</t>
+  </si>
+  <si>
+    <t>生产力</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%88%B6%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>政治制度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%8D%B1%E6%9C%BA</t>
+  </si>
+  <si>
+    <t>经济危机</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E4%B8%9A</t>
+  </si>
+  <si>
+    <t>失业</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E8%AD%89%E5%93%B2%E5%AD%B8%E6%95%99%E7%A8%8B</t>
+  </si>
+  <si>
+    <t>实证哲学教程</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AE%A4%E8%AF%86%E8%AE%BA</t>
+  </si>
+  <si>
+    <t>认识论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BD%A2%E8%80%8C%E4%B8%8A%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>形而上学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%84%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>玄学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%E6%80%9D</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E4%BC%AF%E7%89%B9%C2%B7%E6%96%AF%E5%AE%BE%E5%A1%9E</t>
+  </si>
+  <si>
+    <t>赫伯特·斯宾塞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E8%BF%9B%E5%8C%96%E8%AE%BA</t>
+  </si>
+  <si>
+    <t>生物进化论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9</t>
+  </si>
+  <si>
+    <t>生物</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>欧洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%B8%9A%E5%8C%96</t>
+  </si>
+  <si>
+    <t>工业化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/1844%E5%B9%B4%E5%93%B2%E5%AD%A6%E5%92%8C%E7%BB%8F%E6%B5%8E%E5%AD%A6%E6%89%8B%E7%A8%BF</t>
+  </si>
+  <si>
+    <t>1844年哲学和经济学手稿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%86%E5%8F%B2%E5%94%AF%E7%89%A9%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>历史唯物主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E7%95%8C</t>
+  </si>
+  <si>
+    <t>自然界</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%B3%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>劳动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E4%BA%A7%E8%B5%84%E6%96%99</t>
+  </si>
+  <si>
+    <t>生产资料</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E6%9C%89%E5%88%B6</t>
+  </si>
+  <si>
+    <t>私有制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%80%A7</t>
+  </si>
+  <si>
+    <t>人性</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%97%E5%AE%81</t>
+  </si>
+  <si>
+    <t>列宁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E4%B9%89%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>马克思主义社会学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%B5%9B%E4%BA%9A%C2%B7%E4%BC%AF%E6%9E%97</t>
+  </si>
+  <si>
+    <t>以赛亚·伯林</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E7%B1%B3%E5%B0%94%C2%B7%E6%B6%82%E5%B0%94%E5%B9%B2</t>
+  </si>
+  <si>
+    <t>爱米尔·涂尔干</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%B0%94%E5%A4%9A%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>波尔多大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%AD%A6%E6%96%B9%E6%B3%95%E7%9A%84%E8%A7%84%E5%88%99</t>
+  </si>
+  <si>
+    <t>社会学方法的规则</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%BA%8B%E5%AE%9E</t>
+  </si>
+  <si>
+    <t>社会事实</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%9D%80%E8%AE%BA</t>
+  </si>
+  <si>
+    <t>自杀论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%A4%A9%E4%B8%BB%E6%95%99</t>
+  </si>
+  <si>
+    <t>罗马天主教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%95%99</t>
+  </si>
+  <si>
+    <t>新教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>伦敦政治经济学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>伦敦大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>德国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%90%E8%BF%AA%E5%8D%97%C2%B7%E6%BB%95%E5%B0%BC%E6%96%AF</t>
+  </si>
+  <si>
+    <t>斐迪南·滕尼斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%85%95%E5%B0%BC%E9%BB%91%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>慕尼黑大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%85%B0</t>
+  </si>
+  <si>
+    <t>波兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%85%B0%E5%85%8B%E7%A6%8F%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>法兰克福大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E9%B2%81%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>耶鲁大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%90%A8%E6%96%AF%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>堪萨斯大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E5%AD%A6%E6%B4%BE</t>
+  </si>
+  <si>
+    <t>芝加哥学派</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>芝加哥大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E8%B3%80%E4%BC%AF%E7%89%B9%C2%B7%E7%B1%B3%E5%BE%B7</t>
+  </si>
+  <si>
+    <t>乔治·贺伯特·米德</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>密歇根大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E7%90%86%E6%96%AF%C2%B7%E9%9C%8D%E9%A1%BF%C2%B7%E5%BA%93%E5%88%A9</t>
+  </si>
+  <si>
+    <t>查理斯·霍顿·库利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E6%9D%9C%E5%A8%81</t>
+  </si>
+  <si>
+    <t>约翰·杜威</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%B0%94%E7%A7%91%E7%89%B9%C2%B7%E5%B8%95%E6%A3%AE%E6%96%AF</t>
+  </si>
+  <si>
+    <t>塔尔科特·帕森斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>马克思主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>中国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>上海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B2%AA%E6%B1%9F%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>沪江大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E4%B8%9C%E5%B8%88%E8%8C%83%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>华东师范大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>法国政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E6%95%B8%E5%B8%AB</t>
+  </si>
+  <si>
+    <t>核数师</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%A4%BE%E6%9C%83%E5%AD%B8%E5%8D%94%E6%9C%83</t>
+  </si>
+  <si>
+    <t>国际社会学协会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%B8%82%E5%8C%96</t>
+  </si>
+  <si>
+    <t>城市化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%B0%E4%BB%A3%E6%80%A7</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E5%A4%A7%E9%99%B8</t>
+  </si>
+  <si>
+    <t>欧洲大陆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%9F%E8%AE%A1%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>统计学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%8D%81%E4%B8%96%E7%BA%AA</t>
+  </si>
+  <si>
+    <t>二十世纪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>法学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E7%B1%B3%E5%B0%94%C2%B7%E6%B6%82%E5%B0%94%E5%B9%B2</t>
+  </si>
+  <si>
+    <t>埃米尔·涂尔干</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B6%82%E5%B0%94%E5%B9%B2</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%88%86%E5%B7%A5%E8%AE%BA</t>
+  </si>
+  <si>
+    <t>社会分工论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E8%B3%93%E5%A1%9E</t>
+  </si>
+  <si>
+    <t>斯宾塞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E8%BF%9B%E5%8C%96%E8%AE%BA</t>
+  </si>
+  <si>
+    <t>社会进化论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%9F%E5%88%A9%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>功利主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9F%A6%E4%BC%AF</t>
+  </si>
+  <si>
+    <t>韦伯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BD%90%E7%BE%8E%E5%B0%94</t>
+  </si>
+  <si>
+    <t>齐美尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F</t>
+  </si>
+  <si>
+    <t>经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2%E5%94%AF%E7%89%A9%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%94%9F%E7%89%A9%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A</t>
+  </si>
+  <si>
+    <t>古希腊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%84%E9%87%91%E6%97%B6%E4%BB%A3</t>
+  </si>
+  <si>
+    <t>黄金时代</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E9%87%8C%E5%A3%AB%E5%A4%9A%E5%BE%B7</t>
+  </si>
+  <si>
+    <t>亚里士多德</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%95%9F%E8%92%99%E6%80%9D%E6%83%B3</t>
+  </si>
+  <si>
+    <t>启蒙思想</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%A5%91%E7%BA%A6%E8%AE%BA</t>
+  </si>
+  <si>
+    <t>社会契约论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%BE%B7%E6%96%AF%E9%B8%A0</t>
+  </si>
+  <si>
+    <t>孟德斯鸠</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%9D%83%E5%88%86%E7%AB%8B</t>
+  </si>
+  <si>
+    <t>三权分立</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8F%E5%B0%94%E6%B3%B0</t>
+  </si>
+  <si>
+    <t>伏尔泰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8B%84%E5%BE%B7%E7%BD%97</t>
+  </si>
+  <si>
+    <t>狄德罗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AE%A9-%E9%9B%85%E5%85%8B%C2%B7%E5%8D%A2%E6%A2%AD</t>
+  </si>
+  <si>
+    <t>让-雅克·卢梭</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E8%B0%9F</t>
+  </si>
+  <si>
+    <t>休谟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%BD%93%C2%B7%E6%96%AF%E5%AF%86</t>
+  </si>
+  <si>
+    <t>亚当·斯密</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E6%A0%BC%E6%A3%AE</t>
+  </si>
+  <si>
+    <t>福格森</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%A5%BF%E9%97%A8</t>
+  </si>
+  <si>
+    <t>圣西门</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E6%9C%89%E6%9C%BA%E4%BD%93%E8%AE%BA</t>
+  </si>
+  <si>
+    <t>社会有机体论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E5%BF%97</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%9F%E8%83%BD%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>功能主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%BD%8C%E7%88%BE%C2%B7%E6%B6%82%E7%88%BE%E5%B9%B9</t>
+  </si>
+  <si>
+    <t>艾弥尔·涂尔干</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%A6%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>新马克思主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9A%8E%E7%B4%9A%E9%AC%A5%E7%88%AD</t>
+  </si>
+  <si>
+    <t>阶级斗争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%AF%E7%B6%B2</t>
+  </si>
+  <si>
+    <t>互联网</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B9%B4%E9%BD%A1</t>
+  </si>
+  <si>
+    <t>年龄</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%BF%83%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%B8%82</t>
+  </si>
+  <si>
+    <t>城市</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%9D%91</t>
+  </si>
+  <si>
+    <t>农村</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BC%83%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>比较社会学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5%E8%A7%92%E8%89%B2</t>
+  </si>
+  <si>
+    <t>性别角色</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E5%9C%B0%E7%90%86%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>人口地理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%80%81%E5%B9%B4%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>老年学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8A%AF%E7%BD%AA%E5%BF%83%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>犯罪心理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%AA%E6%80%A7%E7%A0%94%E7%A9%B6</t>
+  </si>
+  <si>
+    <t>质性研究</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%8D%81%E4%B8%96%E7%B4%80</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E5%AD%B8%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>人类学家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E7%89%A9%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>动物学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%80%B2%E5%8C%96%E5%BF%83%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>进化心理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>社区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%A1%E6%9D%91</t>
+  </si>
+  <si>
+    <t>乡村</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E9%95%87</t>
+  </si>
+  <si>
+    <t>集镇</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%83%A8%E8%90%BD</t>
+  </si>
+  <si>
+    <t>部落</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%A2%E4%BD%93</t>
+  </si>
+  <si>
+    <t>团体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%84%B0%E9%87%8C</t>
+  </si>
+  <si>
+    <t>邻里</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E7%BB%84%E7%BB%87</t>
+  </si>
+  <si>
+    <t>社会组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%B1%82%E5%88%B6</t>
+  </si>
+  <si>
+    <t>科层制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%B2%E5%B1%9E</t>
+  </si>
+  <si>
+    <t>亲属</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A9%9A%E5%A7%BB</t>
+  </si>
+  <si>
+    <t>婚姻</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%93%E8%82%B2</t>
+  </si>
+  <si>
+    <t>体育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%88%E4%BD%9C</t>
+  </si>
+  <si>
+    <t>合作</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%9E%E4%BA%89</t>
+  </si>
+  <si>
+    <t>竞争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%B9%E9%9D%A9</t>
+  </si>
+  <si>
+    <t>改革</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E8%88%86%E8%AE%BA</t>
+  </si>
+  <si>
+    <t>社会舆论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%8C%96</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E8%A7%92%E8%89%B2</t>
+  </si>
+  <si>
+    <t>社会角色</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%B0%E4%BB%A3%E5%8C%96</t>
+  </si>
+  <si>
+    <t>现代化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%B1%E4%B8%9A</t>
+  </si>
+  <si>
+    <t>就业</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E5%88%86%E8%A3%82</t>
+  </si>
+  <si>
+    <t>民族分裂</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B1%A1%E6%9F%93</t>
+  </si>
+  <si>
+    <t>污染</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%BB%E6%B0%91</t>
+  </si>
+  <si>
+    <t>移民</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F%E6%AD%A7%E8%A6%96</t>
+  </si>
+  <si>
+    <t>种族歧视</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9A%B4%E5%8A%9B</t>
+  </si>
+  <si>
+    <t>暴力</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%AB%E5%9B%B0</t>
+  </si>
+  <si>
+    <t>贫困</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%94%E7%94%A8%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>应用社会学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%BB%E5%AD%A6%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>医学社会学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8A%AF%E7%BD%AA%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>犯罪社会学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E8%BD%A8%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%BF%9D%E9%9A%9C</t>
+  </si>
+  <si>
+    <t>社会保障</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%B7%A5%E4%BD%9C</t>
+  </si>
+  <si>
+    <t>社会工作</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%9C%B0%E7%90%86%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E5%85%B3%E7%B3%BB%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>公共关系学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>人口史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E8%A7%84%E5%88%92%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>人口规划学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8%E5%AE%B6%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>社会学家列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%83%85%E6%8A%A5%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>情报学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>社会主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E7%BB%93%E6%9E%84</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%89%8D%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>人才学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%BA%BA%E6%A0%BC%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>社会人格学</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Korotayev</t>
+  </si>
+  <si>
+    <t>en-Korotayev</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E8%92%99%C2%B7%E5%B8%83%E4%B8%9C</t>
+  </si>
+  <si>
+    <t>雷蒙·布东</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E7%B4%B9%E5%80%AB</t>
+  </si>
+  <si>
+    <t>黄绍伦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
+  </si>
+  <si>
+    <t>维基词典</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>地理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%96%87%E5%9C%B0%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>人文地理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%9C%B0%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>环境地理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82</t>
+  </si>
+  <si>
+    <t>国际关系</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%8C%E6%94%BF%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>公共行政学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E6%94%BF%E7%AD%96</t>
+  </si>
+  <si>
+    <t>公共政策</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%80%83%E5%8F%A4%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>考古学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>语言学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E8%88%87%E5%8B%95%E7%89%A9%E9%97%9C%E4%BF%82%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>人与动物关系学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%80%E5%9F%9F%E7%A0%94%E7%A9%B6</t>
+  </si>
+  <si>
+    <t>区域研究</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>商学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E7%A5%9E%E7%BB%8F%E7%A7%91%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>社会神经科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5%E7%A7%91%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>认知科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E6%92%AD%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>传播学</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Community_studies</t>
+  </si>
+  <si>
+    <t>en-Community studies</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Development_studies</t>
+  </si>
+  <si>
+    <t>en-Development studies</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>教育学</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Environmental_social_science</t>
+  </si>
+  <si>
+    <t>en-Environmental social science</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Environmental_studies</t>
+  </si>
+  <si>
+    <t>en-Environmental studies</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E7%A0%94%E7%A9%B6</t>
+  </si>
+  <si>
+    <t>食品研究</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E7%A0%94%E7%A9%B6</t>
+  </si>
+  <si>
+    <t>全球研究</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E6%9C%AF%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>技术史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%94%9F%E6%85%8B%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>人类生态学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>信息学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%A0%94%E7%A9%B6</t>
+  </si>
+  <si>
+    <t>国际研究</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E5%93%B2%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%93%B2%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>心理哲学</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Philosophy_of_social_science</t>
+  </si>
+  <si>
+    <t>en-Philosophy of social science</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Land-use_planning</t>
+  </si>
+  <si>
+    <t>en-Land-use planning</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%94%9F%E6%85%8B%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>政治生态学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%9B%E7%94%9F</t>
+  </si>
+  <si>
+    <t>公共卫生</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%80%E5%9F%9F%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>区域经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%8A%80%E8%88%87%E7%A4%BE%E6%9C%83</t>
+  </si>
+  <si>
+    <t>科技与社会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E7%A0%94%E7%A9%B6</t>
+  </si>
+  <si>
+    <t>科学研究</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Geisteswissenschaft</t>
+  </si>
+  <si>
+    <t>en-Geisteswissenschaft</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%96%87%E7%A7%91%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>人文科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E8%A5%BF%E6%96%AF%C2%B7%E6%89%98%E5%85%8B%E7%B6%AD%E7%88%BE</t>
+  </si>
+  <si>
+    <t>亚历西斯·托克维尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E4%BC%AF%E7%89%B9%C2%B7%E6%96%AF%E8%B3%93%E5%A1%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%B4%AF%E6%89%98</t>
+  </si>
+  <si>
+    <t>帕累托</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%89%98%E6%96%AF%E4%B8%B9%C2%B7%E8%8C%83%E4%BC%AF%E5%80%AB</t>
+  </si>
+  <si>
+    <t>托斯丹·范伯伦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%B0%E4%BB%A3</t>
+  </si>
+  <si>
+    <t>现代</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%8E%E7%8E%B0%E4%BB%A3</t>
+  </si>
+  <si>
+    <t>后现代</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%9F%E8%83%BD%E4%B8%BB%E7%BE%A9_(%E7%A4%BE%E6%9C%83%E5%AD%B8)</t>
+  </si>
+  <si>
+    <t>功能主义 (社会学)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E9%87%91%C2%B7%E8%8E%AB%E9%A1%BF</t>
+  </si>
+  <si>
+    <t>罗伯特·金·莫顿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E5%BC%97%E9%87%8C%C2%B7%E4%BA%9A%E5%8E%86%E5%B1%B1%E5%A4%A7%EF%BC%88Jeffrey_C._Alexander%EF%BC%89</t>
+  </si>
+  <si>
+    <t>杰弗里·亚历山大（Jeffrey C. Alexander）</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%85%8B%E6%8B%89%E6%96%AF%C2%B7%E5%8D%A2%E6%9B%BC</t>
+  </si>
+  <si>
+    <t>尼克拉斯·卢曼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%B0%94%E5%A4%AB%C2%B7%E8%BE%BE%E4%BC%A6%E5%A4%9A%E5%A4%AB</t>
+  </si>
+  <si>
+    <t>拉尔夫·达伦多夫</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Lewis_A._Coser</t>
+  </si>
+  <si>
+    <t>en-Lewis A. Coser</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Randall_Collins</t>
+  </si>
+  <si>
+    <t>en-Randall Collins</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E9%87%8C%E5%85%8B%C2%B7%E6%AC%A7%E6%9E%97%C2%B7%E8%B5%96%E7%89%B9%EF%BC%88Erik_Olin_Wright%EF%BC%89</t>
+  </si>
+  <si>
+    <t>埃里克·欧林·赖特（Erik Olin Wright）</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Symbolic_interactionism</t>
+  </si>
+  <si>
+    <t>en-Symbolic interactionism</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%B0%E8%B1%A1%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E8%A9%B9%E5%A7%86%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>威廉·詹姆士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E7%88%BE%E6%96%AF%C2%B7%E5%BA%AB%E5%88%A9</t>
+  </si>
+  <si>
+    <t>查尔斯·库利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%BC%97%E9%9B%B7%E5%BE%B7%C2%B7%E8%88%92%E8%8C%A8</t>
+  </si>
+  <si>
+    <t>阿尔弗雷德·舒茨</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E6%96%87%C2%B7%E9%AB%98%E5%A4%AB%E6%9B%BC</t>
+  </si>
+  <si>
+    <t>厄文·高夫曼</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Harold_Garfinkel</t>
+  </si>
+  <si>
+    <t>en-Harold Garfinkel</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%8E%E7%BB%93%E6%9E%84%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>后结构主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%9D%B1%E5%B0%BC%C2%B7%E7%B4%80%E7%99%BB%E6%96%AF</t>
+  </si>
+  <si>
+    <t>安东尼·纪登斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E8%80%B6%C2%B7%E5%B8%83%E8%BF%AA%E5%8E%84</t>
+  </si>
+  <si>
+    <t>皮耶·布迪厄</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E6%AD%87%E5%B0%94%C2%B7%E7%A6%8F%E6%9F%AF</t>
+  </si>
+  <si>
+    <t>米歇尔·福柯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E4%B8%9C%E5%B0%BC%E5%A5%A5%C2%B7%E8%91%9B%E5%85%B0%E8%A5%BF</t>
+  </si>
+  <si>
+    <t>安东尼奥·葛兰西</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E5%8D%A1%E5%A5%87%C2%B7%E6%8D%B7%E5%B0%94%E5%90%89</t>
+  </si>
+  <si>
+    <t>卢卡奇·捷尔吉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%85%8B%E6%96%AF%C2%B7%E9%9C%8D%E5%85%8B%E6%B5%B7%E9%BB%98</t>
+  </si>
+  <si>
+    <t>麦克斯·霍克海默</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8B%84%E5%A5%A7%E5%A4%9A%C2%B7%E9%98%BF%E5%A4%9A%E8%AB%BE</t>
+  </si>
+  <si>
+    <t>狄奥多·阿多诺</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E4%BC%AF%E7%89%B9%C2%B7%E9%A9%AC%E5%B0%94%E5%BA%93%E5%A1%9E</t>
+  </si>
+  <si>
+    <t>赫伯特·马尔库塞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E9%87%8C%E5%B8%8C%C2%B7%E5%BC%97%E7%BD%97%E5%A7%86</t>
+  </si>
+  <si>
+    <t>埃里希·弗罗姆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%B0%94%E6%A0%B9%C2%B7%E5%93%88%E8%B4%9D%E9%A9%AC%E6%96%AF</t>
+  </si>
+  <si>
+    <t>尤尔根·哈贝马斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E5%8D%9A%E7%89%B9%C2%B7%E4%BC%8A%E9%87%8C%E4%BA%9E%E6%80%9D</t>
+  </si>
+  <si>
+    <t>诺博特·伊里亚思</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%9A%C2%B7%E5%B8%83%E5%B8%8C%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>尚·布希亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BD%90%E6%A0%BC%E8%92%99%C2%B7%E9%B2%8D%E6%9B%BC</t>
+  </si>
+  <si>
+    <t>齐格蒙·鲍曼</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%AD%A6%E7%90%86%E8%AE%BA</t>
-  </si>
-  <si>
-    <t>社会学理论</t>
-  </si>
-  <si>
-    <t>政策_政策_政治_社会学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>社會學史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%9E%E8%AF%81%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>实证主义</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Antipositivism</t>
-  </si>
-  <si>
-    <t>en-Antipositivism</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%93%E6%9E%84%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>结构主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%B2%E7%AA%81%E7%90%86%E8%AE%BA</t>
-  </si>
-  <si>
-    <t>冲突理论</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%B1%82%E7%90%86%E8%AE%BA</t>
-  </si>
-  <si>
-    <t>中层理论</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E7%90%86%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>数理社会学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%B9%E5%88%A4%E7%90%86%E8%AE%BA</t>
-  </si>
-  <si>
-    <t>批判理论</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E6%A7%8B%E8%88%87%E8%83%BD%E5%8B%95%E6%80%A7</t>
-  </si>
-  <si>
-    <t>結構與能動性</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E8%B0%83%E6%9F%A5</t>
-  </si>
-  <si>
-    <t>社会调查</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%9A%E9%87%8F%E7%A0%94%E7%A9%B6</t>
-  </si>
-  <si>
-    <t>定量研究</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%9A%E6%80%A7%E7%A0%94%E7%A9%B6</t>
-  </si>
-  <si>
-    <t>定性研究</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E7%AE%97%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>計算社會學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E8%AA%8C</t>
-  </si>
-  <si>
-    <t>民族誌</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E8%AE%8A%E9%81%B7</t>
-  </si>
-  <si>
-    <t>社會變遷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E5%B8%82%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>都市社會學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E9%98%B6%E5%B1%82</t>
-  </si>
-  <si>
-    <t>社会阶层</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8A%AF%E7%BD%AA%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>犯罪學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>文化社会学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%96%87%E5%8C%96</t>
-  </si>
-  <si>
-    <t>反文化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E5%B1%95%E7%90%86%E8%AE%BA</t>
-  </si>
-  <si>
-    <t>发展理论</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E8%BB%8C%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>越軌社會學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>人口学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>教育社会学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%8C%96</t>
-  </si>
-  <si>
-    <t>社會化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%8D%E5%B9%B3%E7%AD%89</t>
-  </si>
-  <si>
-    <t>社會不平等</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>经济社会学</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Environmental_sociology</t>
-  </si>
-  <si>
-    <t>en-Environmental sociology</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Sociology_of_the_family</t>
-  </si>
-  <si>
-    <t>en-Sociology of the family</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%AB%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>性别社会学</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Sociology_of_health_and_illness</t>
-  </si>
-  <si>
-    <t>en-Sociology of health and illness</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>工業社會學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E9%9A%9B%E7%B6%B2%E8%B7%AF%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>網際網路社會學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AF%86%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>知识社会学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>法律社会学</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Sociology_of_literature</t>
-  </si>
-  <si>
-    <t>en-Sociology of literature</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%BB%E7%96%97%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>医疗社会学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E6%B5%81%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>社会流动</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E9%81%8B%E5%8B%95</t>
-  </si>
-  <si>
-    <t>社會運動</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Organizational_theory</t>
-  </si>
-  <si>
-    <t>en-Organizational theory</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>政治社会学</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Sociology_of_race_and_ethnic_relations</t>
-  </si>
-  <si>
-    <t>en-Sociology of race and ethnic relations</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%84%89%E6%9D%91%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>鄉村社會學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>宗教社会学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%93%E8%82%B2%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>体育社会学</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Sociology_of_scientific_knowledge</t>
-  </si>
-  <si>
-    <t>en-Sociology of scientific knowledge</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Military_sociology</t>
-  </si>
-  <si>
-    <t>en-Military sociology</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%A0%E6%92%AD%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>传播社会学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%80%A7%E5%8C%96_(%E7%A4%BE%E4%BC%9A%E5%AD%A6)</t>
-  </si>
-  <si>
-    <t>理性化 (社会学)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%A4%E9%AB%94</t>
-  </si>
-  <si>
-    <t>群體</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E4%BF%97%E5%8C%96</t>
-  </si>
-  <si>
-    <t>世俗化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E6%80%A7%E7%BD%91%E7%BB%9C</t>
-  </si>
-  <si>
-    <t>社会性网络</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%BC%81%E6%A5%AD</t>
-  </si>
-  <si>
-    <t>社會企業</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%BF%83%E7%90%86%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>社会心理学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%9C%B0%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>經濟地理學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E6%80%9D%E6%83%B3%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>經濟思想史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E4%BA%BA%E7%B1%BB%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>文化人类学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>社會人類學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E7%94%9F%E7%89%A9%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>社会生物学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E7%A0%94%E7%A9%B6</t>
-  </si>
-  <si>
-    <t>文化研究</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%AB%E7%A0%94%E7%A9%B6</t>
-  </si>
-  <si>
-    <t>性别研究</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%9C%B0%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>社會地理學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E8%AF%AD%E8%A8%80%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>社会语言学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AA%92%E9%AB%94%E7%A0%94%E7%A9%B6</t>
-  </si>
-  <si>
-    <t>媒體研究</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%93%B2%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>社會哲學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%B5%B1%E8%A8%88%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>社會統計學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B3%BB%E7%BB%9F%E7%A7%91%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>系统科学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%AB%94%E7%B3%BB%E7%90%86%E8%AB%96</t>
-  </si>
-  <si>
-    <t>世界體系理論</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>Template talk-社会学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83</t>
-  </si>
-  <si>
-    <t>社會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E7%A7%91</t>
-  </si>
-  <si>
-    <t>學科</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E9%A9%97%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>經驗主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%B9%E5%88%A4%E7%90%86%E8%AB%96</t>
-  </si>
-  <si>
-    <t>批判理論</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E7%A4%BE%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>人类社会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%B5%90%E6%A7%8B</t>
-  </si>
-  <si>
-    <t>社會結構</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E6%B4%BB%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>社会活动</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%A6%E9%97%AE</t>
-  </si>
-  <si>
-    <t>学问</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%A6%8F%E5%88%A9</t>
-  </si>
-  <si>
-    <t>社會福利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%9A%9B%E9%97%9C%E4%BF%82</t>
-  </si>
-  <si>
-    <t>人際關係</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E9%AB%94</t>
-  </si>
-  <si>
-    <t>本體</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%95%8F%E9%A1%8C</t>
-  </si>
-  <si>
-    <t>社會問題</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E6%8E%A7%E5%88%B6</t>
-  </si>
-  <si>
-    <t>社会控制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>經濟學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>政治學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>人類學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>心理學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%A7%91%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>社會科學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%88%86%E5%B1%A4</t>
-  </si>
-  <si>
-    <t>社會分層</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E9%9A%8E%E7%B4%9A</t>
-  </si>
-  <si>
-    <t>社會階級</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E6%B5%81%E5%8B%95</t>
-  </si>
-  <si>
-    <t>社會流動</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AD%B7%E7%90%86</t>
-  </si>
-  <si>
-    <t>護理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B</t>
-  </si>
-  <si>
-    <t>軍事</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%91%E4%BA%8B</t>
-  </si>
-  <si>
-    <t>刑事</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%B6%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>制度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E9%9A%9B%E7%B6%B2%E8%B7%AF</t>
-  </si>
-  <si>
-    <t>網際網路</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80</t>
-  </si>
-  <si>
-    <t>語言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E9%87%8B%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>解釋學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>哲學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AA%E4%BD%93%E4%B8%BA%E6%9C%AC%E6%A8%A1%E5%9E%8B</t>
-  </si>
-  <si>
-    <t>个体为本模型</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BA%A4%E7%B6%B2%E8%B7%AF</t>
-  </si>
-  <si>
-    <t>社交網路</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E6%80%A7</t>
-  </si>
-  <si>
-    <t>現代性</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%B4%BB</t>
-  </si>
-  <si>
-    <t>生活</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%8F%A4%E6%96%AF%E7%89%B9%C2%B7%E5%AD%94%E5%BE%B7</t>
-  </si>
-  <si>
-    <t>奥古斯特·孔德</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>神學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E5%8A%9B</t>
-  </si>
-  <si>
-    <t>武力</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%80%A7</t>
-  </si>
-  <si>
-    <t>理性</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>科學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%88%B6%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>社會制度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B6%82%E7%88%BE%E5%B9%B9</t>
-  </si>
-  <si>
-    <t>涂爾幹</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E5%85%8B%E7%A6%8F%E5%AD%B8%E6%B4%BE</t>
-  </si>
-  <si>
-    <t>法蘭克福學派</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E5%85%8B%E6%B5%B7%E9%BB%98</t>
-  </si>
-  <si>
-    <t>霍克海默</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A4%9A%E8%AB%BE</t>
-  </si>
-  <si>
-    <t>阿多諾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%E6%96%AF%C2%B7%E9%9F%A6%E4%BC%AF</t>
-  </si>
-  <si>
-    <t>马克斯·韦伯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E5%A5%A5%E5%B0%94%E6%A0%BC%C2%B7%E9%BD%90%E7%BE%8E%E5%B0%94</t>
-  </si>
-  <si>
-    <t>格奥尔格·齐美尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>資本主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%97%9D%E8%A1%93</t>
-  </si>
-  <si>
-    <t>藝術</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BC%AF%E7%91%AA%E6%96%AF</t>
-  </si>
-  <si>
-    <t>哈伯瑪斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%93%E6%9E%84%E5%8A%9F%E8%83%BD%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>结构功能主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E8%B1%A1%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>現象學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E6%80%9D</t>
-  </si>
-  <si>
-    <t>馬克思</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E7%94%A2%E9%9A%8E%E7%B4%9A</t>
-  </si>
-  <si>
-    <t>資產階級</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E7%94%A2%E9%9A%8E%E7%B4%9A</t>
-  </si>
-  <si>
-    <t>無產階級</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%A9%E5%91%BD</t>
-  </si>
-  <si>
-    <t>革命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>政治经济学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%9D%E7%AA%81%E8%AB%96</t>
-  </si>
-  <si>
-    <t>衝突論</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%8D%E6%97%8F</t>
-  </si>
-  <si>
-    <t>种族</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F</t>
-  </si>
-  <si>
-    <t>民族</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%B6%E7%BA%A7</t>
-  </si>
-  <si>
-    <t>阶级</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%AB</t>
-  </si>
-  <si>
-    <t>性别</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E5%BA%AD</t>
-  </si>
-  <si>
-    <t>家庭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A6%BB%E5%A9%9A</t>
-  </si>
-  <si>
-    <t>离婚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%8F%98%E8%BF%81</t>
-  </si>
-  <si>
-    <t>社会变迁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7F%C2%B7%E6%8B%89%E6%89%8E%E6%96%AF%E8%8F%B2%E7%88%BE%E5%BE%B7</t>
-  </si>
-  <si>
-    <t>保羅·F·拉扎斯菲爾德</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%86%E5%8F%B2%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>历史社会学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%83%E8%88%87%E8%A7%80%E5%AF%9F</t>
-  </si>
-  <si>
-    <t>參與觀察</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%AE%E6%A0%B9%E7%90%86%E8%AB%96</t>
-  </si>
-  <si>
-    <t>紮根理論</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%AE%B9%E5%88%86%E6%9E%90</t>
-  </si>
-  <si>
-    <t>内容分析</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BD%BC%E5%BE%97%C2%B7%E6%9F%8F%E6%A0%BC_(%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E5%AD%B8%E5%AE%B6)</t>
-  </si>
-  <si>
-    <t>彼得·柏格 (美國社會學家)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8%E7%9A%84%E6%AD%B7%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>社會學的歷史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%80%BB%E8%BE%91</t>
-  </si>
-  <si>
-    <t>逻辑</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E6%96%87%E5%8C%96</t>
-  </si>
-  <si>
-    <t>西方文化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>哲学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%8B%89%E5%9B%BE</t>
-  </si>
-  <si>
-    <t>柏拉图</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%AB%E6%97%A5%E5%AE%A1%E5%88%A4%E4%B9%A6</t>
-  </si>
-  <si>
-    <t>末日审判书</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%BA%AA</t>
-  </si>
-  <si>
-    <t>中世纪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0</t>
-  </si>
-  <si>
-    <t>伊斯兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>社會學家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%9D%9E</t>
-  </si>
-  <si>
-    <t>北非</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>阿拉伯人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%AC%C2%B7%E8%B5%AB%E5%8B%92%E6%95%A6</t>
-  </si>
-  <si>
-    <t>伊本·赫勒敦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2%E7%B7%92%E8%AB%96</t>
-  </si>
-  <si>
-    <t>歷史緒論</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%83%E4%B8%96%E7%BA%AA</t>
-  </si>
-  <si>
-    <t>十七世纪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%9B%E5%8D%A1%E5%84%BF</t>
-  </si>
-  <si>
-    <t>笛卡儿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%80%A7%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>理性主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>科学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9C%9F%E7%90%86</t>
-  </si>
-  <si>
-    <t>真理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>拉丁语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>希腊语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>法国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%A3%E6%96%87%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>散文家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E9%A9%AC%E7%BA%BD%E5%9F%83%E5%B0%94-%E7%BA%A6%E7%91%9F%E5%A4%AB%C2%B7%E8%A5%BF%E5%93%80%E5%A3%AB</t>
-  </si>
-  <si>
-    <t>埃马纽埃尔-约瑟夫·西哀士</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6%E5%93%B2%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>科学哲学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%97%B6</t>
-  </si>
-  <si>
-    <t>比利时</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%9F%E8%AE%A1%E5%AD%A6%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>统计学家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%97%E4%BC%AF%C2%B7%E9%98%BF%E9%81%93%E5%A4%AB%C2%B7%E9%9B%85%E5%85%8B%C2%B7%E5%87%AF%E7%89%B9%E5%8B%92</t>
-  </si>
-  <si>
-    <t>朗伯·阿道夫·雅克·凯特勒</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%86%E5%8F%B2%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>历史学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>心理学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>经济学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%A4%A7%E9%9D%A9%E5%91%BD</t>
-  </si>
-  <si>
-    <t>法国大革命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>英国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%B8%9A%E9%9D%A9%E5%91%BD</t>
-  </si>
-  <si>
-    <t>工业革命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%84%E6%9C%AC%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>资本主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E4%BA%A7%E5%8A%9B</t>
-  </si>
-  <si>
-    <t>生产力</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%88%B6%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>政治制度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%8D%B1%E6%9C%BA</t>
-  </si>
-  <si>
-    <t>经济危机</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E4%B8%9A</t>
-  </si>
-  <si>
-    <t>失业</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E8%AD%89%E5%93%B2%E5%AD%B8%E6%95%99%E7%A8%8B</t>
-  </si>
-  <si>
-    <t>實證哲學教程</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AE%A4%E8%AF%86%E8%AE%BA</t>
-  </si>
-  <si>
-    <t>认识论</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>神学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BD%A2%E8%80%8C%E4%B8%8A%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>形而上学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%84%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>玄学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%E6%80%9D</t>
-  </si>
-  <si>
-    <t>马克思</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E4%BC%AF%E7%89%B9%C2%B7%E6%96%AF%E5%AE%BE%E5%A1%9E</t>
-  </si>
-  <si>
-    <t>赫伯特·斯宾塞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E8%BF%9B%E5%8C%96%E8%AE%BA</t>
-  </si>
-  <si>
-    <t>生物进化论</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9</t>
-  </si>
-  <si>
-    <t>生物</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>欧洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%B8%9A%E5%8C%96</t>
-  </si>
-  <si>
-    <t>工业化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/1844%E5%B9%B4%E5%93%B2%E5%AD%A6%E5%92%8C%E7%BB%8F%E6%B5%8E%E5%AD%A6%E6%89%8B%E7%A8%BF</t>
-  </si>
-  <si>
-    <t>1844年哲学和经济学手稿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%86%E5%8F%B2%E5%94%AF%E7%89%A9%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>历史唯物主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E7%95%8C</t>
-  </si>
-  <si>
-    <t>自然界</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%B3%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>劳动</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E4%BA%A7%E8%B5%84%E6%96%99</t>
-  </si>
-  <si>
-    <t>生产资料</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E6%9C%89%E5%88%B6</t>
-  </si>
-  <si>
-    <t>私有制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%80%A7</t>
-  </si>
-  <si>
-    <t>人性</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%97%E5%AE%81</t>
-  </si>
-  <si>
-    <t>列宁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E4%B9%89%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>马克思主义社会学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%B5%9B%E4%BA%9A%C2%B7%E4%BC%AF%E6%9E%97</t>
-  </si>
-  <si>
-    <t>以赛亚·伯林</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E7%B1%B3%E5%B0%94%C2%B7%E6%B6%82%E5%B0%94%E5%B9%B2</t>
-  </si>
-  <si>
-    <t>爱米尔·涂尔干</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%B0%94%E5%A4%9A%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>波尔多大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%AD%A6%E6%96%B9%E6%B3%95%E7%9A%84%E8%A7%84%E5%88%99</t>
-  </si>
-  <si>
-    <t>社会学方法的规则</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%BA%8B%E5%AE%9E</t>
-  </si>
-  <si>
-    <t>社会事实</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%9D%80%E8%AE%BA</t>
-  </si>
-  <si>
-    <t>自杀论</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%A4%A9%E4%B8%BB%E6%95%99</t>
-  </si>
-  <si>
-    <t>罗马天主教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%95%99</t>
-  </si>
-  <si>
-    <t>新教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>伦敦政治经济学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>伦敦大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>德国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%90%E8%BF%AA%E5%8D%97%C2%B7%E6%BB%95%E5%B0%BC%E6%96%AF</t>
-  </si>
-  <si>
-    <t>斐迪南·滕尼斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%85%95%E5%B0%BC%E9%BB%91%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>慕尼黑大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%85%B0</t>
-  </si>
-  <si>
-    <t>波兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%85%B0%E5%85%8B%E7%A6%8F%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>法兰克福大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E9%B2%81%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>耶鲁大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%90%A8%E6%96%AF%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>堪萨斯大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E5%AD%A6%E6%B4%BE</t>
-  </si>
-  <si>
-    <t>芝加哥学派</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>芝加哥大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E8%B3%80%E4%BC%AF%E7%89%B9%C2%B7%E7%B1%B3%E5%BE%B7</t>
-  </si>
-  <si>
-    <t>喬治·賀伯特·米德</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>密歇根大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E7%90%86%E6%96%AF%C2%B7%E9%9C%8D%E9%A1%BF%C2%B7%E5%BA%93%E5%88%A9</t>
-  </si>
-  <si>
-    <t>查理斯·霍顿·库利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E6%9D%9C%E5%A8%81</t>
-  </si>
-  <si>
-    <t>约翰·杜威</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%B0%94%E7%A7%91%E7%89%B9%C2%B7%E5%B8%95%E6%A3%AE%E6%96%AF</t>
-  </si>
-  <si>
-    <t>塔尔科特·帕森斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>马克思主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>中国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>上海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%AA%E6%B1%9F%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>沪江大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E4%B8%9C%E5%B8%88%E8%8C%83%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>华东师范大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>法国政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E6%95%B8%E5%B8%AB</t>
-  </si>
-  <si>
-    <t>核數師</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%A4%BE%E6%9C%83%E5%AD%B8%E5%8D%94%E6%9C%83</t>
-  </si>
-  <si>
-    <t>國際社會學協會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%B8%82%E5%8C%96</t>
-  </si>
-  <si>
-    <t>城市化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%B0%E4%BB%A3%E6%80%A7</t>
-  </si>
-  <si>
-    <t>现代性</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E5%A4%A7%E9%99%B8</t>
-  </si>
-  <si>
-    <t>歐洲大陸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>人类学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%9F%E8%AE%A1%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>统计学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%8D%81%E4%B8%96%E7%BA%AA</t>
-  </si>
-  <si>
-    <t>二十世纪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>法学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E7%B1%B3%E5%B0%94%C2%B7%E6%B6%82%E5%B0%94%E5%B9%B2</t>
-  </si>
-  <si>
-    <t>埃米尔·涂尔干</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B6%82%E5%B0%94%E5%B9%B2</t>
-  </si>
-  <si>
-    <t>涂尔干</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%88%86%E5%B7%A5%E8%AE%BA</t>
-  </si>
-  <si>
-    <t>社会分工论</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E8%B3%93%E5%A1%9E</t>
-  </si>
-  <si>
-    <t>斯賓塞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E8%BF%9B%E5%8C%96%E8%AE%BA</t>
-  </si>
-  <si>
-    <t>社会进化论</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%9F%E5%88%A9%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>功利主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9F%A6%E4%BC%AF</t>
-  </si>
-  <si>
-    <t>韦伯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BD%90%E7%BE%8E%E5%B0%94</t>
-  </si>
-  <si>
-    <t>齐美尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F</t>
-  </si>
-  <si>
-    <t>經濟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>歷史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>馬克思主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2%E5%94%AF%E7%89%A9%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>歷史唯物主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%94%9F%E7%89%A9%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>社會生物學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A</t>
-  </si>
-  <si>
-    <t>古希腊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%84%E9%87%91%E6%97%B6%E4%BB%A3</t>
-  </si>
-  <si>
-    <t>黄金时代</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E9%87%8C%E5%A3%AB%E5%A4%9A%E5%BE%B7</t>
-  </si>
-  <si>
-    <t>亚里士多德</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>政治学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%95%9F%E8%92%99%E6%80%9D%E6%83%B3</t>
-  </si>
-  <si>
-    <t>啟蒙思想</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%A5%91%E7%BA%A6%E8%AE%BA</t>
-  </si>
-  <si>
-    <t>社会契约论</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%BE%B7%E6%96%AF%E9%B8%A0</t>
-  </si>
-  <si>
-    <t>孟德斯鸠</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%9D%83%E5%88%86%E7%AB%8B</t>
-  </si>
-  <si>
-    <t>三权分立</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8F%E5%B0%94%E6%B3%B0</t>
-  </si>
-  <si>
-    <t>伏尔泰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8B%84%E5%BE%B7%E7%BD%97</t>
-  </si>
-  <si>
-    <t>狄德罗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AE%A9-%E9%9B%85%E5%85%8B%C2%B7%E5%8D%A2%E6%A2%AD</t>
-  </si>
-  <si>
-    <t>让-雅克·卢梭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E8%B0%9F</t>
-  </si>
-  <si>
-    <t>休谟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%BD%93%C2%B7%E6%96%AF%E5%AF%86</t>
-  </si>
-  <si>
-    <t>亚当·斯密</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E6%A0%BC%E6%A3%AE</t>
-  </si>
-  <si>
-    <t>福格森</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%A5%BF%E9%97%A8</t>
-  </si>
-  <si>
-    <t>圣西门</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E6%9C%89%E6%9C%BA%E4%BD%93%E8%AE%BA</t>
-  </si>
-  <si>
-    <t>社会有机体论</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E5%BF%97</t>
-  </si>
-  <si>
-    <t>民族志</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%9F%E8%83%BD%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>功能主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%BD%8C%E7%88%BE%C2%B7%E6%B6%82%E7%88%BE%E5%B9%B9</t>
-  </si>
-  <si>
-    <t>艾彌爾·涂爾幹</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%A6%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>新馬克思主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9A%8E%E7%B4%9A%E9%AC%A5%E7%88%AD</t>
-  </si>
-  <si>
-    <t>階級鬥爭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%AF%E7%B6%B2</t>
-  </si>
-  <si>
-    <t>互聯網</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B9%B4%E9%BD%A1</t>
-  </si>
-  <si>
-    <t>年齡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F</t>
-  </si>
-  <si>
-    <t>種族</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%BF%83%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>社會心理學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%B8%82</t>
-  </si>
-  <si>
-    <t>城市</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%9D%91</t>
-  </si>
-  <si>
-    <t>農村</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BC%83%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>比較社會學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5%E8%A7%92%E8%89%B2</t>
-  </si>
-  <si>
-    <t>性別角色</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E5%9C%B0%E7%90%86%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>人口地理学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%80%81%E5%B9%B4%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>老年學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8A%AF%E7%BD%AA%E5%BF%83%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>犯罪心理學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%AA%E6%80%A7%E7%A0%94%E7%A9%B6</t>
-  </si>
-  <si>
-    <t>質性研究</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%8D%81%E4%B8%96%E7%B4%80</t>
-  </si>
-  <si>
-    <t>二十世紀</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E5%AD%B8%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>人類學家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E7%89%A9%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>動物學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%80%B2%E5%8C%96%E5%BF%83%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>進化心理學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>社区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%A1%E6%9D%91</t>
-  </si>
-  <si>
-    <t>乡村</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E9%95%87</t>
-  </si>
-  <si>
-    <t>集镇</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%83%A8%E8%90%BD</t>
-  </si>
-  <si>
-    <t>部落</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%A2%E4%BD%93</t>
-  </si>
-  <si>
-    <t>团体</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%84%B0%E9%87%8C</t>
-  </si>
-  <si>
-    <t>鄰里</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E7%BB%84%E7%BB%87</t>
-  </si>
-  <si>
-    <t>社会组织</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%B1%82%E5%88%B6</t>
-  </si>
-  <si>
-    <t>科层制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%B2%E5%B1%9E</t>
-  </si>
-  <si>
-    <t>亲属</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A9%9A%E5%A7%BB</t>
-  </si>
-  <si>
-    <t>婚姻</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%93%E8%82%B2</t>
-  </si>
-  <si>
-    <t>体育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%88%E4%BD%9C</t>
-  </si>
-  <si>
-    <t>合作</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%9E%E4%BA%89</t>
-  </si>
-  <si>
-    <t>竞争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%B9%E9%9D%A9</t>
-  </si>
-  <si>
-    <t>改革</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E8%88%86%E8%AE%BA</t>
-  </si>
-  <si>
-    <t>社会舆论</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%8C%96</t>
-  </si>
-  <si>
-    <t>社会化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E8%A7%92%E8%89%B2</t>
-  </si>
-  <si>
-    <t>社会角色</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%B0%E4%BB%A3%E5%8C%96</t>
-  </si>
-  <si>
-    <t>现代化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
-  </si>
-  <si>
-    <t>社会问题</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%B1%E4%B8%9A</t>
-  </si>
-  <si>
-    <t>就业</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E5%88%86%E8%A3%82</t>
-  </si>
-  <si>
-    <t>民族分裂</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B1%A1%E6%9F%93</t>
-  </si>
-  <si>
-    <t>污染</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%BB%E6%B0%91</t>
-  </si>
-  <si>
-    <t>移民</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F%E6%AD%A7%E8%A6%96</t>
-  </si>
-  <si>
-    <t>種族歧視</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9A%B4%E5%8A%9B</t>
-  </si>
-  <si>
-    <t>暴力</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%AB%E5%9B%B0</t>
-  </si>
-  <si>
-    <t>贫困</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%94%E7%94%A8%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>应用社会学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%BB%E5%AD%A6%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>医学社会学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8A%AF%E7%BD%AA%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>犯罪社會學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E8%BD%A8%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>越轨社会学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%BF%9D%E9%9A%9C</t>
-  </si>
-  <si>
-    <t>社会保障</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%B7%A5%E4%BD%9C</t>
-  </si>
-  <si>
-    <t>社会工作</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%9C%B0%E7%90%86%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>社会地理学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E5%85%B3%E7%B3%BB%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>公共关系学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>人口史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E8%A7%84%E5%88%92%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>人口规划学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8%E5%AE%B6%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>社會學家列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%83%85%E6%8A%A5%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>情报学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>社会主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E7%BB%93%E6%9E%84</t>
-  </si>
-  <si>
-    <t>社会结构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%89%8D%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>人才学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%BA%BA%E6%A0%BC%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>社会人格学</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Korotayev</t>
-  </si>
-  <si>
-    <t>en-Korotayev</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E8%92%99%C2%B7%E5%B8%83%E4%B8%9C</t>
-  </si>
-  <si>
-    <t>雷蒙·布东</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E7%B4%B9%E5%80%AB</t>
-  </si>
-  <si>
-    <t>黃紹倫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
-  </si>
-  <si>
-    <t>維基詞典</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>地理學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%96%87%E5%9C%B0%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>人文地理學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%9C%B0%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>環境地理學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>歷史學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>法學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82</t>
-  </si>
-  <si>
-    <t>國際關係</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%8C%E6%94%BF%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>公共行政學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E6%94%BF%E7%AD%96</t>
-  </si>
-  <si>
-    <t>公共政策</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>社會學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%80%83%E5%8F%A4%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>考古學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>語言學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E8%88%87%E5%8B%95%E7%89%A9%E9%97%9C%E4%BF%82%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>人與動物關係學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%80%E5%9F%9F%E7%A0%94%E7%A9%B6</t>
-  </si>
-  <si>
-    <t>區域研究</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>商學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E7%A5%9E%E7%BB%8F%E7%A7%91%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>社会神经科学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5%E7%A7%91%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>認知科學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E6%92%AD%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>傳播學</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Community_studies</t>
-  </si>
-  <si>
-    <t>en-Community studies</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Development_studies</t>
-  </si>
-  <si>
-    <t>en-Development studies</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>教育學</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Environmental_social_science</t>
-  </si>
-  <si>
-    <t>en-Environmental social science</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Environmental_studies</t>
-  </si>
-  <si>
-    <t>en-Environmental studies</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E7%A0%94%E7%A9%B6</t>
-  </si>
-  <si>
-    <t>食品研究</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E7%A0%94%E7%A9%B6</t>
-  </si>
-  <si>
-    <t>全球研究</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E6%9C%AF%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>技术史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%94%9F%E6%85%8B%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>人類生態學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>信息学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%A0%94%E7%A9%B6</t>
-  </si>
-  <si>
-    <t>國際研究</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E5%93%B2%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>科學哲學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%93%B2%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>心理哲学</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Philosophy_of_social_science</t>
-  </si>
-  <si>
-    <t>en-Philosophy of social science</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Land-use_planning</t>
-  </si>
-  <si>
-    <t>en-Land-use planning</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%94%9F%E6%85%8B%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>政治生態學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%9B%E7%94%9F</t>
-  </si>
-  <si>
-    <t>公共衛生</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%80%E5%9F%9F%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>區域經濟學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%8A%80%E8%88%87%E7%A4%BE%E6%9C%83</t>
-  </si>
-  <si>
-    <t>科技與社會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E7%A0%94%E7%A9%B6</t>
-  </si>
-  <si>
-    <t>科學研究</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Geisteswissenschaft</t>
-  </si>
-  <si>
-    <t>en-Geisteswissenschaft</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%96%87%E7%A7%91%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>人文科學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E8%A5%BF%E6%96%AF%C2%B7%E6%89%98%E5%85%8B%E7%B6%AD%E7%88%BE</t>
-  </si>
-  <si>
-    <t>亞歷西斯·托克維爾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E4%BC%AF%E7%89%B9%C2%B7%E6%96%AF%E8%B3%93%E5%A1%9E</t>
-  </si>
-  <si>
-    <t>赫伯特·斯賓塞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%B4%AF%E6%89%98</t>
-  </si>
-  <si>
-    <t>帕累托</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%98%E6%96%AF%E4%B8%B9%C2%B7%E8%8C%83%E4%BC%AF%E5%80%AB</t>
-  </si>
-  <si>
-    <t>托斯丹·范伯倫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%B0%E4%BB%A3</t>
-  </si>
-  <si>
-    <t>现代</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%8E%E7%8E%B0%E4%BB%A3</t>
-  </si>
-  <si>
-    <t>后现代</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%9F%E8%83%BD%E4%B8%BB%E7%BE%A9_(%E7%A4%BE%E6%9C%83%E5%AD%B8)</t>
-  </si>
-  <si>
-    <t>功能主義 (社會學)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E9%87%91%C2%B7%E8%8E%AB%E9%A1%BF</t>
-  </si>
-  <si>
-    <t>罗伯特·金·莫顿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E5%BC%97%E9%87%8C%C2%B7%E4%BA%9A%E5%8E%86%E5%B1%B1%E5%A4%A7%EF%BC%88Jeffrey_C._Alexander%EF%BC%89</t>
-  </si>
-  <si>
-    <t>杰弗里·亚历山大（Jeffrey C. Alexander）</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%85%8B%E6%8B%89%E6%96%AF%C2%B7%E5%8D%A2%E6%9B%BC</t>
-  </si>
-  <si>
-    <t>尼克拉斯·卢曼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%B0%94%E5%A4%AB%C2%B7%E8%BE%BE%E4%BC%A6%E5%A4%9A%E5%A4%AB</t>
-  </si>
-  <si>
-    <t>拉尔夫·达伦多夫</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Lewis_A._Coser</t>
-  </si>
-  <si>
-    <t>en-Lewis A. Coser</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Randall_Collins</t>
-  </si>
-  <si>
-    <t>en-Randall Collins</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E9%87%8C%E5%85%8B%C2%B7%E6%AC%A7%E6%9E%97%C2%B7%E8%B5%96%E7%89%B9%EF%BC%88Erik_Olin_Wright%EF%BC%89</t>
-  </si>
-  <si>
-    <t>埃里克·欧林·赖特（Erik Olin Wright）</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Symbolic_interactionism</t>
-  </si>
-  <si>
-    <t>en-Symbolic interactionism</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%B0%E8%B1%A1%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>现象学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E8%A9%B9%E5%A7%86%E5%A3%AB</t>
-  </si>
-  <si>
-    <t>威廉·詹姆士</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E7%88%BE%E6%96%AF%C2%B7%E5%BA%AB%E5%88%A9</t>
-  </si>
-  <si>
-    <t>查爾斯·庫利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%BC%97%E9%9B%B7%E5%BE%B7%C2%B7%E8%88%92%E8%8C%A8</t>
-  </si>
-  <si>
-    <t>阿尔弗雷德·舒茨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E6%96%87%C2%B7%E9%AB%98%E5%A4%AB%E6%9B%BC</t>
-  </si>
-  <si>
-    <t>厄文·高夫曼</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Harold_Garfinkel</t>
-  </si>
-  <si>
-    <t>en-Harold Garfinkel</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%8E%E7%BB%93%E6%9E%84%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>后结构主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%9D%B1%E5%B0%BC%C2%B7%E7%B4%80%E7%99%BB%E6%96%AF</t>
-  </si>
-  <si>
-    <t>安東尼·紀登斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E8%80%B6%C2%B7%E5%B8%83%E8%BF%AA%E5%8E%84</t>
-  </si>
-  <si>
-    <t>皮耶·布迪厄</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E6%AD%87%E5%B0%94%C2%B7%E7%A6%8F%E6%9F%AF</t>
-  </si>
-  <si>
-    <t>米歇尔·福柯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E4%B8%9C%E5%B0%BC%E5%A5%A5%C2%B7%E8%91%9B%E5%85%B0%E8%A5%BF</t>
-  </si>
-  <si>
-    <t>安东尼奥·葛兰西</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E5%8D%A1%E5%A5%87%C2%B7%E6%8D%B7%E5%B0%94%E5%90%89</t>
-  </si>
-  <si>
-    <t>卢卡奇·捷尔吉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%85%8B%E6%96%AF%C2%B7%E9%9C%8D%E5%85%8B%E6%B5%B7%E9%BB%98</t>
-  </si>
-  <si>
-    <t>麥克斯·霍克海默</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8B%84%E5%A5%A7%E5%A4%9A%C2%B7%E9%98%BF%E5%A4%9A%E8%AB%BE</t>
-  </si>
-  <si>
-    <t>狄奧多·阿多諾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E4%BC%AF%E7%89%B9%C2%B7%E9%A9%AC%E5%B0%94%E5%BA%93%E5%A1%9E</t>
-  </si>
-  <si>
-    <t>赫伯特·马尔库塞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E9%87%8C%E5%B8%8C%C2%B7%E5%BC%97%E7%BD%97%E5%A7%86</t>
-  </si>
-  <si>
-    <t>埃里希·弗罗姆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%B0%94%E6%A0%B9%C2%B7%E5%93%88%E8%B4%9D%E9%A9%AC%E6%96%AF</t>
-  </si>
-  <si>
-    <t>尤尔根·哈贝马斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E5%8D%9A%E7%89%B9%C2%B7%E4%BC%8A%E9%87%8C%E4%BA%9E%E6%80%9D</t>
-  </si>
-  <si>
-    <t>諾博特·伊里亞思</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%9A%C2%B7%E5%B8%83%E5%B8%8C%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>尚·布希亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BD%90%E6%A0%BC%E8%92%99%C2%B7%E9%B2%8D%E6%9B%BC</t>
-  </si>
-  <si>
-    <t>齐格蒙·鲍曼</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -2820,7 +2730,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I457"/>
+  <dimension ref="A1:I458"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4904,7 +4814,7 @@
         <v>144</v>
       </c>
       <c r="G72" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H72" t="s">
         <v>4</v>
@@ -4988,7 +4898,7 @@
         <v>149</v>
       </c>
       <c r="F75" t="s">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -5014,10 +4924,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -5043,10 +4953,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>11</v>
@@ -5072,10 +4982,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>5</v>
@@ -5101,10 +5011,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -5130,10 +5040,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -5159,10 +5069,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -5188,10 +5098,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
         <v>163</v>
-      </c>
-      <c r="F82" t="s">
-        <v>164</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -5217,10 +5127,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>152</v>
+      </c>
+      <c r="F83" t="s">
         <v>153</v>
-      </c>
-      <c r="F83" t="s">
-        <v>154</v>
       </c>
       <c r="G83" t="n">
         <v>5</v>
@@ -5246,10 +5156,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" t="s">
         <v>165</v>
-      </c>
-      <c r="F84" t="s">
-        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>3</v>
@@ -5275,10 +5185,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>166</v>
+      </c>
+      <c r="F85" t="s">
         <v>167</v>
-      </c>
-      <c r="F85" t="s">
-        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -5304,10 +5214,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86" t="s">
         <v>169</v>
-      </c>
-      <c r="F86" t="s">
-        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>5</v>
@@ -5333,10 +5243,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" t="s">
         <v>171</v>
-      </c>
-      <c r="F87" t="s">
-        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -5362,10 +5272,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>172</v>
+      </c>
+      <c r="F88" t="s">
         <v>173</v>
-      </c>
-      <c r="F88" t="s">
-        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>7</v>
@@ -5391,10 +5301,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
         <v>175</v>
-      </c>
-      <c r="F89" t="s">
-        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>7</v>
@@ -5420,10 +5330,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" t="s">
         <v>177</v>
-      </c>
-      <c r="F90" t="s">
-        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>11</v>
@@ -5449,10 +5359,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" t="s">
         <v>179</v>
-      </c>
-      <c r="F91" t="s">
-        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -5478,10 +5388,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" t="s">
         <v>181</v>
-      </c>
-      <c r="F92" t="s">
-        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>3</v>
@@ -5507,10 +5417,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -5623,10 +5533,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F97" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5652,10 +5562,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F98" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5681,10 +5591,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F99" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5710,10 +5620,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F100" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G100" t="n">
         <v>19</v>
@@ -5739,10 +5649,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F101" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5768,10 +5678,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F102" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -5797,10 +5707,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F103" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5826,10 +5736,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F104" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5855,10 +5765,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F105" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5884,10 +5794,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F106" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5913,10 +5823,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F107" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G107" t="n">
         <v>4</v>
@@ -5942,10 +5852,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F108" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G108" t="n">
         <v>6</v>
@@ -5971,10 +5881,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F109" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G109" t="n">
         <v>16</v>
@@ -6000,10 +5910,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F110" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G110" t="n">
         <v>3</v>
@@ -6029,10 +5939,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F111" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -6058,10 +5968,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F112" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G112" t="n">
         <v>7</v>
@@ -6087,10 +5997,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F113" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G113" t="n">
         <v>27</v>
@@ -6116,10 +6026,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F114" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G114" t="n">
         <v>3</v>
@@ -6145,10 +6055,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F115" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G115" t="n">
         <v>5</v>
@@ -6174,10 +6084,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F116" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -6203,10 +6113,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F117" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -6232,10 +6142,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F118" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -6261,10 +6171,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F119" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G119" t="n">
         <v>4</v>
@@ -6290,10 +6200,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F120" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6319,10 +6229,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F121" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6348,10 +6258,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F122" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -6377,10 +6287,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F123" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6406,10 +6316,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F124" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G124" t="n">
         <v>3</v>
@@ -6435,10 +6345,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F125" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G125" t="n">
         <v>3</v>
@@ -6464,10 +6374,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F126" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G126" t="n">
         <v>6</v>
@@ -6493,10 +6403,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F127" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6522,10 +6432,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F128" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6551,10 +6461,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F129" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G129" t="n">
         <v>8</v>
@@ -6580,10 +6490,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F130" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -6609,10 +6519,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F131" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -6638,10 +6548,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F132" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G132" t="n">
         <v>4</v>
@@ -6667,10 +6577,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F133" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G133" t="n">
         <v>5</v>
@@ -6696,10 +6606,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F134" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G134" t="n">
         <v>4</v>
@@ -6725,10 +6635,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F135" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G135" t="n">
         <v>2</v>
@@ -6754,10 +6664,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F136" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G136" t="n">
         <v>11</v>
@@ -6783,10 +6693,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F137" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6841,10 +6751,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F139" t="s">
-        <v>268</v>
+        <v>34</v>
       </c>
       <c r="G139" t="n">
         <v>6</v>
@@ -6870,10 +6780,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F140" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6928,10 +6838,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F142" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6957,10 +6867,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F143" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6986,10 +6896,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F144" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -7015,10 +6925,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F145" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7044,10 +6954,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F146" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7073,10 +6983,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F147" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -7102,10 +7012,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F148" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -7131,10 +7041,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F149" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7160,10 +7070,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F150" t="s">
-        <v>288</v>
+        <v>198</v>
       </c>
       <c r="G150" t="n">
         <v>11</v>
@@ -7189,10 +7099,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F151" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G151" t="n">
         <v>3</v>
@@ -7218,10 +7128,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F152" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7247,10 +7157,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F153" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7276,10 +7186,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F154" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7305,10 +7215,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F155" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G155" t="n">
         <v>19</v>
@@ -7334,10 +7244,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F156" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7363,10 +7273,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F157" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7392,10 +7302,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F158" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7421,10 +7331,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F159" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7450,10 +7360,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F160" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7479,10 +7389,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F161" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7508,10 +7418,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F162" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7537,10 +7447,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F163" t="s">
-        <v>314</v>
+        <v>216</v>
       </c>
       <c r="G163" t="n">
         <v>21</v>
@@ -7566,10 +7476,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F164" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7595,10 +7505,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F165" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7624,10 +7534,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F166" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7653,10 +7563,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F167" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G167" t="n">
         <v>7</v>
@@ -7682,10 +7592,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F168" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7711,10 +7621,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F169" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7740,10 +7650,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F170" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7769,10 +7679,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F171" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7798,10 +7708,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F172" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7827,10 +7737,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F173" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7856,10 +7766,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F174" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7885,10 +7795,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F175" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7914,10 +7824,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F176" t="s">
-        <v>338</v>
+        <v>175</v>
       </c>
       <c r="G176" t="n">
         <v>11</v>
@@ -7943,10 +7853,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F177" t="s">
-        <v>340</v>
+        <v>169</v>
       </c>
       <c r="G177" t="n">
         <v>7</v>
@@ -7972,10 +7882,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F178" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G178" t="n">
         <v>2</v>
@@ -8001,10 +7911,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F179" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -8030,10 +7940,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F180" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="G180" t="n">
         <v>6</v>
@@ -8059,10 +7969,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F181" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G181" t="n">
         <v>14</v>
@@ -8088,10 +7998,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F182" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8117,10 +8027,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="F183" t="s">
-        <v>350</v>
+        <v>232</v>
       </c>
       <c r="G183" t="n">
         <v>3</v>
@@ -8146,10 +8056,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F184" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8175,10 +8085,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F185" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -8204,10 +8114,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="F186" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8233,10 +8143,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F187" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8262,10 +8172,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F188" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8291,10 +8201,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="F189" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="G189" t="n">
         <v>2</v>
@@ -8320,10 +8230,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="F190" t="s">
-        <v>364</v>
+        <v>210</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8349,10 +8259,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="F191" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8378,10 +8288,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="F192" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8407,10 +8317,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="F193" t="s">
-        <v>370</v>
+        <v>242</v>
       </c>
       <c r="G193" t="n">
         <v>17</v>
@@ -8436,10 +8346,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="F194" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="G194" t="n">
         <v>2</v>
@@ -8465,10 +8375,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="F195" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8494,10 +8404,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="F196" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8523,10 +8433,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="F197" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="G197" t="n">
         <v>8</v>
@@ -8552,10 +8462,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="F198" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="G198" t="n">
         <v>2</v>
@@ -8581,10 +8491,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="F199" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8610,10 +8520,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="F200" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8639,10 +8549,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F201" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="G201" t="n">
         <v>2</v>
@@ -8668,10 +8578,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F202" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="G202" t="n">
         <v>3</v>
@@ -8697,10 +8607,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="F203" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8726,10 +8636,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="F204" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8755,10 +8665,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="F205" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8784,10 +8694,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="F206" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8813,10 +8723,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="F207" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8842,10 +8752,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="F208" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="G208" t="n">
         <v>2</v>
@@ -8871,10 +8781,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="F209" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="G209" t="n">
         <v>4</v>
@@ -8900,10 +8810,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="F210" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8929,10 +8839,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="F211" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="G211" t="n">
         <v>2</v>
@@ -8958,10 +8868,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="F212" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="G212" t="n">
         <v>3</v>
@@ -8987,10 +8897,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="F213" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -9016,10 +8926,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F214" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9045,10 +8955,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="F215" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9074,10 +8984,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="F216" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9103,10 +9013,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="F217" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9132,10 +9042,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="F218" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="G218" t="n">
         <v>4</v>
@@ -9161,10 +9071,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="F219" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="G219" t="n">
         <v>2</v>
@@ -9190,10 +9100,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F220" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G220" t="n">
         <v>5</v>
@@ -9219,10 +9129,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="F221" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9248,10 +9158,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="F222" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="G222" t="n">
         <v>2</v>
@@ -9277,10 +9187,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="F223" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9306,10 +9216,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="F224" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9335,10 +9245,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="F225" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9364,10 +9274,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="F226" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="G226" t="n">
         <v>3</v>
@@ -9393,10 +9303,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="F227" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="G227" t="n">
         <v>2</v>
@@ -9422,10 +9332,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="F228" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="G228" t="n">
         <v>2</v>
@@ -9451,10 +9361,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="F229" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9480,10 +9390,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="F230" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9509,10 +9419,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="F231" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="G231" t="n">
         <v>2</v>
@@ -9538,10 +9448,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="F232" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="G232" t="n">
         <v>2</v>
@@ -9567,10 +9477,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="F233" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="G233" t="n">
         <v>2</v>
@@ -9596,10 +9506,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="F234" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="G234" t="n">
         <v>9</v>
@@ -9625,10 +9535,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="F235" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9654,10 +9564,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="F236" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9683,10 +9593,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="F237" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9712,10 +9622,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F238" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9741,10 +9651,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F239" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9770,10 +9680,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="F240" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9799,10 +9709,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="F241" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="G241" t="n">
         <v>2</v>
@@ -9828,10 +9738,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="F242" t="s">
-        <v>466</v>
+        <v>204</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9857,10 +9767,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="F243" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9886,10 +9796,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="F244" t="s">
-        <v>470</v>
+        <v>173</v>
       </c>
       <c r="G244" t="n">
         <v>7</v>
@@ -9915,10 +9825,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="F245" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="G245" t="n">
         <v>5</v>
@@ -9944,10 +9854,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="F246" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="G246" t="n">
         <v>3</v>
@@ -9973,10 +9883,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="F247" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -10002,10 +9912,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="F248" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -10031,10 +9941,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="F249" t="s">
-        <v>480</v>
+        <v>220</v>
       </c>
       <c r="G249" t="n">
         <v>12</v>
@@ -10060,10 +9970,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="F250" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10089,10 +9999,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="F251" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="G251" t="n">
         <v>4</v>
@@ -10118,10 +10028,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="F252" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10147,10 +10057,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F253" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10176,10 +10086,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="F254" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10205,10 +10115,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="F255" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="G255" t="n">
         <v>8</v>
@@ -10234,10 +10144,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="F256" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="G256" t="n">
         <v>2</v>
@@ -10263,10 +10173,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="F257" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="G257" t="n">
         <v>11</v>
@@ -10292,10 +10202,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="F258" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="G258" t="n">
         <v>8</v>
@@ -10321,10 +10231,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="F259" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10350,10 +10260,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="F260" t="s">
-        <v>498</v>
+        <v>438</v>
       </c>
       <c r="G260" t="n">
         <v>3</v>
@@ -10379,10 +10289,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="F261" t="s">
-        <v>500</v>
+        <v>374</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10408,10 +10318,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="F262" t="s">
-        <v>502</v>
+        <v>122</v>
       </c>
       <c r="G262" t="n">
         <v>6</v>
@@ -10437,10 +10347,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="F263" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="G263" t="n">
         <v>3</v>
@@ -10466,10 +10376,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="F264" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10495,10 +10405,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="F265" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10524,10 +10434,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="F266" t="s">
-        <v>510</v>
+        <v>171</v>
       </c>
       <c r="G266" t="n">
         <v>2</v>
@@ -10553,10 +10463,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>511</v>
+        <v>494</v>
       </c>
       <c r="F267" t="s">
-        <v>512</v>
+        <v>495</v>
       </c>
       <c r="G267" t="n">
         <v>4</v>
@@ -10582,10 +10492,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="F268" t="s">
-        <v>514</v>
+        <v>497</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10611,10 +10521,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
       <c r="F269" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
       <c r="G269" t="n">
         <v>2</v>
@@ -10640,10 +10550,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="F270" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10669,10 +10579,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>519</v>
+        <v>502</v>
       </c>
       <c r="F271" t="s">
-        <v>520</v>
+        <v>503</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10698,10 +10608,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
       <c r="F272" t="s">
-        <v>522</v>
+        <v>505</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10727,10 +10637,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>523</v>
+        <v>506</v>
       </c>
       <c r="F273" t="s">
-        <v>524</v>
+        <v>507</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10756,10 +10666,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>525</v>
+        <v>508</v>
       </c>
       <c r="F274" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10785,10 +10695,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
       <c r="F275" t="s">
-        <v>528</v>
+        <v>511</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10814,10 +10724,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
       <c r="F276" t="s">
-        <v>530</v>
+        <v>513</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10843,10 +10753,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>531</v>
+        <v>514</v>
       </c>
       <c r="F277" t="s">
-        <v>532</v>
+        <v>515</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10901,10 +10811,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F279" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10930,10 +10840,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
       <c r="F280" t="s">
-        <v>534</v>
+        <v>517</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10959,10 +10869,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
       <c r="F281" t="s">
-        <v>536</v>
+        <v>32</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10988,10 +10898,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
       <c r="F282" t="s">
-        <v>538</v>
+        <v>520</v>
       </c>
       <c r="G282" t="n">
         <v>2</v>
@@ -11017,10 +10927,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>539</v>
+        <v>521</v>
       </c>
       <c r="F283" t="s">
-        <v>540</v>
+        <v>522</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11046,10 +10956,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>541</v>
+        <v>523</v>
       </c>
       <c r="F284" t="s">
-        <v>542</v>
+        <v>524</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11075,10 +10985,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
       <c r="F285" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11104,10 +11014,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>545</v>
+        <v>527</v>
       </c>
       <c r="F286" t="s">
-        <v>546</v>
+        <v>528</v>
       </c>
       <c r="G286" t="n">
         <v>4</v>
@@ -11133,10 +11043,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>547</v>
+        <v>529</v>
       </c>
       <c r="F287" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11162,10 +11072,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>549</v>
+        <v>531</v>
       </c>
       <c r="F288" t="s">
-        <v>550</v>
+        <v>254</v>
       </c>
       <c r="G288" t="n">
         <v>4</v>
@@ -11191,10 +11101,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>551</v>
+        <v>532</v>
       </c>
       <c r="F289" t="s">
-        <v>552</v>
+        <v>112</v>
       </c>
       <c r="G289" t="n">
         <v>2</v>
@@ -11220,10 +11130,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>553</v>
+        <v>533</v>
       </c>
       <c r="F290" t="s">
-        <v>554</v>
+        <v>534</v>
       </c>
       <c r="G290" t="n">
         <v>5</v>
@@ -11249,10 +11159,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>555</v>
+        <v>535</v>
       </c>
       <c r="F291" t="s">
-        <v>556</v>
+        <v>536</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11278,10 +11188,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
       <c r="F292" t="s">
-        <v>558</v>
+        <v>538</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11307,10 +11217,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>559</v>
+        <v>539</v>
       </c>
       <c r="F293" t="s">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11336,10 +11246,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>561</v>
+        <v>541</v>
       </c>
       <c r="F294" t="s">
-        <v>562</v>
+        <v>542</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11365,10 +11275,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>563</v>
+        <v>543</v>
       </c>
       <c r="F295" t="s">
-        <v>564</v>
+        <v>544</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11394,10 +11304,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>565</v>
+        <v>545</v>
       </c>
       <c r="F296" t="s">
-        <v>566</v>
+        <v>546</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11423,10 +11333,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>567</v>
+        <v>547</v>
       </c>
       <c r="F297" t="s">
-        <v>568</v>
+        <v>548</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11452,10 +11362,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>569</v>
+        <v>549</v>
       </c>
       <c r="F298" t="s">
-        <v>570</v>
+        <v>462</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11481,10 +11391,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>571</v>
+        <v>550</v>
       </c>
       <c r="F299" t="s">
-        <v>572</v>
+        <v>551</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11510,10 +11420,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>573</v>
+        <v>552</v>
       </c>
       <c r="F300" t="s">
-        <v>574</v>
+        <v>553</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11539,10 +11449,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>575</v>
+        <v>554</v>
       </c>
       <c r="F301" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11568,10 +11478,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>577</v>
+        <v>556</v>
       </c>
       <c r="F302" t="s">
-        <v>578</v>
+        <v>557</v>
       </c>
       <c r="G302" t="n">
         <v>2</v>
@@ -11597,10 +11507,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>579</v>
+        <v>558</v>
       </c>
       <c r="F303" t="s">
-        <v>580</v>
+        <v>559</v>
       </c>
       <c r="G303" t="n">
         <v>2</v>
@@ -11626,10 +11536,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>581</v>
+        <v>560</v>
       </c>
       <c r="F304" t="s">
-        <v>582</v>
+        <v>561</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11655,10 +11565,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>583</v>
+        <v>562</v>
       </c>
       <c r="F305" t="s">
-        <v>584</v>
+        <v>563</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11684,10 +11594,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>585</v>
+        <v>564</v>
       </c>
       <c r="F306" t="s">
-        <v>586</v>
+        <v>565</v>
       </c>
       <c r="G306" t="n">
         <v>2</v>
@@ -11713,10 +11623,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>587</v>
+        <v>566</v>
       </c>
       <c r="F307" t="s">
-        <v>588</v>
+        <v>567</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11742,10 +11652,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>589</v>
+        <v>568</v>
       </c>
       <c r="F308" t="s">
-        <v>590</v>
+        <v>569</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11771,10 +11681,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>591</v>
+        <v>570</v>
       </c>
       <c r="F309" t="s">
-        <v>592</v>
+        <v>571</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11800,10 +11710,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F310" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G310" t="n">
         <v>2</v>
@@ -11829,10 +11739,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>593</v>
+        <v>572</v>
       </c>
       <c r="F311" t="s">
-        <v>594</v>
+        <v>573</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11858,10 +11768,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="F312" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11887,10 +11797,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>597</v>
+        <v>576</v>
       </c>
       <c r="F313" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="G313" t="n">
         <v>2</v>
@@ -11916,10 +11826,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
       <c r="F314" t="s">
-        <v>600</v>
+        <v>579</v>
       </c>
       <c r="G314" t="n">
         <v>2</v>
@@ -11945,10 +11855,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>601</v>
+        <v>580</v>
       </c>
       <c r="F315" t="s">
-        <v>602</v>
+        <v>581</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11974,10 +11884,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="F316" t="s">
-        <v>604</v>
+        <v>583</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12003,10 +11913,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>605</v>
+        <v>584</v>
       </c>
       <c r="F317" t="s">
-        <v>606</v>
+        <v>585</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12032,10 +11942,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>607</v>
+        <v>586</v>
       </c>
       <c r="F318" t="s">
-        <v>608</v>
+        <v>587</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12061,10 +11971,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="F319" t="s">
-        <v>610</v>
+        <v>54</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12090,10 +12000,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>611</v>
+        <v>589</v>
       </c>
       <c r="F320" t="s">
-        <v>612</v>
+        <v>590</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12119,10 +12029,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>613</v>
+        <v>591</v>
       </c>
       <c r="F321" t="s">
-        <v>614</v>
+        <v>592</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12148,10 +12058,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>615</v>
+        <v>593</v>
       </c>
       <c r="F322" t="s">
-        <v>616</v>
+        <v>165</v>
       </c>
       <c r="G322" t="n">
         <v>4</v>
@@ -12177,10 +12087,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>617</v>
+        <v>594</v>
       </c>
       <c r="F323" t="s">
-        <v>618</v>
+        <v>595</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12206,10 +12116,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>619</v>
+        <v>596</v>
       </c>
       <c r="F324" t="s">
-        <v>620</v>
+        <v>597</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12235,10 +12145,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>621</v>
+        <v>598</v>
       </c>
       <c r="F325" t="s">
-        <v>622</v>
+        <v>599</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12264,10 +12174,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>623</v>
+        <v>600</v>
       </c>
       <c r="F326" t="s">
-        <v>624</v>
+        <v>601</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12293,10 +12203,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>625</v>
+        <v>602</v>
       </c>
       <c r="F327" t="s">
-        <v>626</v>
+        <v>603</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12322,10 +12232,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>627</v>
+        <v>604</v>
       </c>
       <c r="F328" t="s">
-        <v>628</v>
+        <v>605</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12351,10 +12261,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>629</v>
+        <v>606</v>
       </c>
       <c r="F329" t="s">
-        <v>630</v>
+        <v>607</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12380,10 +12290,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F330" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12554,10 +12464,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>631</v>
+        <v>608</v>
       </c>
       <c r="F336" t="s">
-        <v>632</v>
+        <v>609</v>
       </c>
       <c r="G336" t="n">
         <v>2</v>
@@ -12612,10 +12522,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>633</v>
+        <v>610</v>
       </c>
       <c r="F338" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12699,10 +12609,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="F341" t="s">
-        <v>636</v>
+        <v>613</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12728,10 +12638,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>637</v>
+        <v>614</v>
       </c>
       <c r="F342" t="s">
-        <v>638</v>
+        <v>48</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12757,10 +12667,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>639</v>
+        <v>615</v>
       </c>
       <c r="F343" t="s">
-        <v>640</v>
+        <v>616</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12786,10 +12696,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>641</v>
+        <v>617</v>
       </c>
       <c r="F344" t="s">
-        <v>642</v>
+        <v>618</v>
       </c>
       <c r="G344" t="n">
         <v>2</v>
@@ -12931,10 +12841,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
       <c r="F349" t="s">
-        <v>558</v>
+        <v>538</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12960,10 +12870,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>643</v>
+        <v>619</v>
       </c>
       <c r="F350" t="s">
-        <v>644</v>
+        <v>128</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13047,10 +12957,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F353" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G353" t="n">
         <v>4</v>
@@ -13105,10 +13015,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>645</v>
+        <v>620</v>
       </c>
       <c r="F355" t="s">
-        <v>646</v>
+        <v>621</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13163,10 +13073,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>647</v>
+        <v>622</v>
       </c>
       <c r="F357" t="s">
-        <v>648</v>
+        <v>623</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13192,10 +13102,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>561</v>
+        <v>541</v>
       </c>
       <c r="F358" t="s">
-        <v>562</v>
+        <v>542</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13221,10 +13131,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>649</v>
+        <v>624</v>
       </c>
       <c r="F359" t="s">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13250,10 +13160,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>651</v>
+        <v>626</v>
       </c>
       <c r="F360" t="s">
-        <v>652</v>
+        <v>627</v>
       </c>
       <c r="G360" t="n">
         <v>2</v>
@@ -13279,10 +13189,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>653</v>
+        <v>628</v>
       </c>
       <c r="F361" t="s">
-        <v>654</v>
+        <v>629</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13308,10 +13218,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>655</v>
+        <v>630</v>
       </c>
       <c r="F362" t="s">
-        <v>656</v>
+        <v>631</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13337,10 +13247,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>657</v>
+        <v>632</v>
       </c>
       <c r="F363" t="s">
-        <v>658</v>
+        <v>153</v>
       </c>
       <c r="G363" t="n">
         <v>3</v>
@@ -13366,10 +13276,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>659</v>
+        <v>633</v>
       </c>
       <c r="F364" t="s">
-        <v>660</v>
+        <v>634</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13395,10 +13305,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="F365" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="G365" t="n">
         <v>2</v>
@@ -13424,10 +13334,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>661</v>
+        <v>635</v>
       </c>
       <c r="F366" t="s">
-        <v>662</v>
+        <v>636</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13453,10 +13363,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>663</v>
+        <v>637</v>
       </c>
       <c r="F367" t="s">
-        <v>664</v>
+        <v>638</v>
       </c>
       <c r="G367" t="n">
         <v>2</v>
@@ -13482,10 +13392,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>665</v>
+        <v>639</v>
       </c>
       <c r="F368" t="s">
-        <v>666</v>
+        <v>640</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13511,10 +13421,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>667</v>
+        <v>641</v>
       </c>
       <c r="F369" t="s">
-        <v>668</v>
+        <v>642</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13540,10 +13450,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>669</v>
+        <v>643</v>
       </c>
       <c r="F370" t="s">
-        <v>670</v>
+        <v>644</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13569,10 +13479,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>671</v>
+        <v>645</v>
       </c>
       <c r="F371" t="s">
-        <v>672</v>
+        <v>646</v>
       </c>
       <c r="G371" t="n">
         <v>4</v>
@@ -13598,10 +13508,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>673</v>
+        <v>647</v>
       </c>
       <c r="F372" t="s">
-        <v>674</v>
+        <v>648</v>
       </c>
       <c r="G372" t="n">
         <v>3</v>
@@ -13627,10 +13537,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>675</v>
+        <v>649</v>
       </c>
       <c r="F373" t="s">
-        <v>676</v>
+        <v>650</v>
       </c>
       <c r="G373" t="n">
         <v>4</v>
@@ -13656,10 +13566,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>677</v>
+        <v>651</v>
       </c>
       <c r="F374" t="s">
-        <v>678</v>
+        <v>331</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13685,10 +13595,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>679</v>
+        <v>652</v>
       </c>
       <c r="F375" t="s">
-        <v>680</v>
+        <v>464</v>
       </c>
       <c r="G375" t="n">
         <v>2</v>
@@ -13714,10 +13624,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>681</v>
+        <v>653</v>
       </c>
       <c r="F376" t="s">
-        <v>682</v>
+        <v>654</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13743,10 +13653,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>683</v>
+        <v>655</v>
       </c>
       <c r="F377" t="s">
-        <v>684</v>
+        <v>656</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13772,10 +13682,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>685</v>
+        <v>657</v>
       </c>
       <c r="F378" t="s">
-        <v>686</v>
+        <v>658</v>
       </c>
       <c r="G378" t="n">
         <v>2</v>
@@ -13801,13 +13711,13 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>687</v>
+        <v>39</v>
       </c>
       <c r="F379" t="s">
-        <v>688</v>
+        <v>40</v>
       </c>
       <c r="G379" t="n">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="H379" t="s">
         <v>4</v>
@@ -13830,10 +13740,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F380" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -13859,10 +13769,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>49</v>
+        <v>659</v>
       </c>
       <c r="F381" t="s">
-        <v>50</v>
+        <v>660</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -13888,10 +13798,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="F382" t="s">
-        <v>690</v>
+        <v>662</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -13917,10 +13827,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>691</v>
+        <v>663</v>
       </c>
       <c r="F383" t="s">
-        <v>692</v>
+        <v>664</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -13946,10 +13856,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>693</v>
+        <v>665</v>
       </c>
       <c r="F384" t="s">
-        <v>694</v>
+        <v>666</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -13975,10 +13885,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>695</v>
+        <v>667</v>
       </c>
       <c r="F385" t="s">
-        <v>696</v>
+        <v>668</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14004,10 +13914,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>697</v>
+        <v>669</v>
       </c>
       <c r="F386" t="s">
-        <v>698</v>
+        <v>670</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14033,10 +13943,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>699</v>
+        <v>671</v>
       </c>
       <c r="F387" t="s">
-        <v>700</v>
+        <v>672</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14062,10 +13972,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>701</v>
+        <v>673</v>
       </c>
       <c r="F388" t="s">
-        <v>702</v>
+        <v>674</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14091,10 +14001,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>703</v>
+        <v>675</v>
       </c>
       <c r="F389" t="s">
-        <v>704</v>
+        <v>676</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14120,10 +14030,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>705</v>
+        <v>677</v>
       </c>
       <c r="F390" t="s">
-        <v>706</v>
+        <v>678</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14149,10 +14059,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>707</v>
+        <v>679</v>
       </c>
       <c r="F391" t="s">
-        <v>708</v>
+        <v>680</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14178,10 +14088,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>709</v>
+        <v>681</v>
       </c>
       <c r="F392" t="s">
-        <v>710</v>
+        <v>682</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14207,10 +14117,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>711</v>
+        <v>683</v>
       </c>
       <c r="F393" t="s">
-        <v>712</v>
+        <v>684</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14236,10 +14146,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>713</v>
+        <v>685</v>
       </c>
       <c r="F394" t="s">
-        <v>714</v>
+        <v>686</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14265,10 +14175,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>715</v>
+        <v>687</v>
       </c>
       <c r="F395" t="s">
-        <v>716</v>
+        <v>688</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14294,10 +14204,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>717</v>
+        <v>689</v>
       </c>
       <c r="F396" t="s">
-        <v>718</v>
+        <v>690</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14323,10 +14233,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>719</v>
+        <v>691</v>
       </c>
       <c r="F397" t="s">
-        <v>720</v>
+        <v>692</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14352,10 +14262,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>721</v>
+        <v>693</v>
       </c>
       <c r="F398" t="s">
-        <v>722</v>
+        <v>694</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14381,10 +14291,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>723</v>
+        <v>695</v>
       </c>
       <c r="F399" t="s">
-        <v>724</v>
+        <v>696</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14410,10 +14320,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>725</v>
+        <v>131</v>
       </c>
       <c r="F400" t="s">
-        <v>726</v>
+        <v>132</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14439,10 +14349,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>131</v>
+        <v>697</v>
       </c>
       <c r="F401" t="s">
-        <v>132</v>
+        <v>323</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14468,13 +14378,13 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>727</v>
+        <v>698</v>
       </c>
       <c r="F402" t="s">
-        <v>728</v>
+        <v>699</v>
       </c>
       <c r="G402" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H402" t="s">
         <v>4</v>
@@ -14497,13 +14407,13 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>729</v>
+        <v>700</v>
       </c>
       <c r="F403" t="s">
-        <v>730</v>
+        <v>701</v>
       </c>
       <c r="G403" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="H403" t="s">
         <v>4</v>
@@ -14526,10 +14436,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>731</v>
+        <v>702</v>
       </c>
       <c r="F404" t="s">
-        <v>732</v>
+        <v>703</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -14555,10 +14465,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>733</v>
+        <v>704</v>
       </c>
       <c r="F405" t="s">
-        <v>734</v>
+        <v>705</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14584,10 +14494,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>735</v>
+        <v>706</v>
       </c>
       <c r="F406" t="s">
-        <v>736</v>
+        <v>707</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -14613,10 +14523,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>737</v>
+        <v>708</v>
       </c>
       <c r="F407" t="s">
-        <v>738</v>
+        <v>709</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -14642,10 +14552,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>739</v>
+        <v>710</v>
       </c>
       <c r="F408" t="s">
-        <v>740</v>
+        <v>711</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -14671,10 +14581,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>741</v>
+        <v>712</v>
       </c>
       <c r="F409" t="s">
-        <v>742</v>
+        <v>713</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -14700,10 +14610,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>743</v>
+        <v>714</v>
       </c>
       <c r="F410" t="s">
-        <v>744</v>
+        <v>715</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -14729,10 +14639,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>745</v>
+        <v>716</v>
       </c>
       <c r="F411" t="s">
-        <v>746</v>
+        <v>717</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -14758,10 +14668,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>747</v>
+        <v>207</v>
       </c>
       <c r="F412" t="s">
-        <v>748</v>
+        <v>208</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -14787,10 +14697,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>209</v>
+        <v>360</v>
       </c>
       <c r="F413" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -14816,10 +14726,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>369</v>
+        <v>227</v>
       </c>
       <c r="F414" t="s">
-        <v>370</v>
+        <v>228</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -14845,10 +14755,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>229</v>
+        <v>391</v>
       </c>
       <c r="F415" t="s">
-        <v>230</v>
+        <v>392</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -14874,10 +14784,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>401</v>
+        <v>718</v>
       </c>
       <c r="F416" t="s">
-        <v>402</v>
+        <v>719</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -14903,10 +14813,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>749</v>
+        <v>498</v>
       </c>
       <c r="F417" t="s">
-        <v>750</v>
+        <v>499</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -14932,10 +14842,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>515</v>
+        <v>720</v>
       </c>
       <c r="F418" t="s">
-        <v>516</v>
+        <v>362</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -14961,10 +14871,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>751</v>
+        <v>721</v>
       </c>
       <c r="F419" t="s">
-        <v>752</v>
+        <v>722</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -14990,10 +14900,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>753</v>
+        <v>229</v>
       </c>
       <c r="F420" t="s">
-        <v>754</v>
+        <v>230</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15019,10 +14929,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>231</v>
+        <v>411</v>
       </c>
       <c r="F421" t="s">
-        <v>232</v>
+        <v>412</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15048,10 +14958,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>421</v>
+        <v>723</v>
       </c>
       <c r="F422" t="s">
-        <v>422</v>
+        <v>724</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15077,13 +14987,13 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>755</v>
+        <v>725</v>
       </c>
       <c r="F423" t="s">
-        <v>756</v>
+        <v>726</v>
       </c>
       <c r="G423" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H423" t="s">
         <v>4</v>
@@ -15106,13 +15016,13 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>757</v>
+        <v>727</v>
       </c>
       <c r="F424" t="s">
-        <v>758</v>
+        <v>728</v>
       </c>
       <c r="G424" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H424" t="s">
         <v>4</v>
@@ -15135,13 +15045,13 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>759</v>
+        <v>729</v>
       </c>
       <c r="F425" t="s">
-        <v>760</v>
+        <v>730</v>
       </c>
       <c r="G425" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H425" t="s">
         <v>4</v>
@@ -15164,13 +15074,13 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>761</v>
+        <v>435</v>
       </c>
       <c r="F426" t="s">
-        <v>762</v>
+        <v>436</v>
       </c>
       <c r="G426" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H426" t="s">
         <v>4</v>
@@ -15193,10 +15103,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>445</v>
+        <v>731</v>
       </c>
       <c r="F427" t="s">
-        <v>446</v>
+        <v>732</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15222,10 +15132,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>763</v>
+        <v>733</v>
       </c>
       <c r="F428" t="s">
-        <v>764</v>
+        <v>734</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15251,10 +15161,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>765</v>
+        <v>735</v>
       </c>
       <c r="F429" t="s">
-        <v>766</v>
+        <v>736</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15280,10 +15190,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>767</v>
+        <v>737</v>
       </c>
       <c r="F430" t="s">
-        <v>768</v>
+        <v>738</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15309,10 +15219,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>769</v>
+        <v>739</v>
       </c>
       <c r="F431" t="s">
-        <v>770</v>
+        <v>740</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -15338,13 +15248,13 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>771</v>
+        <v>741</v>
       </c>
       <c r="F432" t="s">
-        <v>772</v>
+        <v>742</v>
       </c>
       <c r="G432" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H432" t="s">
         <v>4</v>
@@ -15367,13 +15277,13 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>773</v>
+        <v>743</v>
       </c>
       <c r="F433" t="s">
-        <v>774</v>
+        <v>744</v>
       </c>
       <c r="G433" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H433" t="s">
         <v>4</v>
@@ -15396,10 +15306,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>775</v>
+        <v>745</v>
       </c>
       <c r="F434" t="s">
-        <v>776</v>
+        <v>746</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -15425,10 +15335,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>777</v>
+        <v>747</v>
       </c>
       <c r="F435" t="s">
-        <v>778</v>
+        <v>240</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -15454,10 +15364,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>779</v>
+        <v>748</v>
       </c>
       <c r="F436" t="s">
-        <v>780</v>
+        <v>749</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -15483,10 +15393,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>781</v>
+        <v>433</v>
       </c>
       <c r="F437" t="s">
-        <v>782</v>
+        <v>434</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -15512,10 +15422,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>443</v>
+        <v>750</v>
       </c>
       <c r="F438" t="s">
-        <v>444</v>
+        <v>751</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -15541,10 +15451,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>783</v>
+        <v>427</v>
       </c>
       <c r="F439" t="s">
-        <v>784</v>
+        <v>428</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -15570,10 +15480,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>437</v>
+        <v>752</v>
       </c>
       <c r="F440" t="s">
-        <v>438</v>
+        <v>753</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -15599,10 +15509,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>785</v>
+        <v>754</v>
       </c>
       <c r="F441" t="s">
-        <v>786</v>
+        <v>755</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -15628,13 +15538,13 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>787</v>
+        <v>756</v>
       </c>
       <c r="F442" t="s">
-        <v>788</v>
+        <v>757</v>
       </c>
       <c r="G442" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H442" t="s">
         <v>4</v>
@@ -15657,13 +15567,13 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>789</v>
+        <v>758</v>
       </c>
       <c r="F443" t="s">
-        <v>790</v>
+        <v>759</v>
       </c>
       <c r="G443" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H443" t="s">
         <v>4</v>
@@ -15686,10 +15596,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>791</v>
+        <v>760</v>
       </c>
       <c r="F444" t="s">
-        <v>792</v>
+        <v>761</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -15715,10 +15625,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>793</v>
+        <v>762</v>
       </c>
       <c r="F445" t="s">
-        <v>794</v>
+        <v>763</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -15744,10 +15654,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>795</v>
+        <v>764</v>
       </c>
       <c r="F446" t="s">
-        <v>796</v>
+        <v>765</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -15773,10 +15683,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>797</v>
+        <v>766</v>
       </c>
       <c r="F447" t="s">
-        <v>798</v>
+        <v>767</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -15802,10 +15712,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>799</v>
+        <v>768</v>
       </c>
       <c r="F448" t="s">
-        <v>800</v>
+        <v>769</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -15831,10 +15741,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>801</v>
+        <v>770</v>
       </c>
       <c r="F449" t="s">
-        <v>802</v>
+        <v>771</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -15860,10 +15770,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>803</v>
+        <v>772</v>
       </c>
       <c r="F450" t="s">
-        <v>804</v>
+        <v>773</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -15889,10 +15799,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>805</v>
+        <v>774</v>
       </c>
       <c r="F451" t="s">
-        <v>806</v>
+        <v>775</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -15918,10 +15828,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>807</v>
+        <v>776</v>
       </c>
       <c r="F452" t="s">
-        <v>808</v>
+        <v>777</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -15947,10 +15857,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>809</v>
+        <v>778</v>
       </c>
       <c r="F453" t="s">
-        <v>810</v>
+        <v>779</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -15976,10 +15886,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>811</v>
+        <v>780</v>
       </c>
       <c r="F454" t="s">
-        <v>812</v>
+        <v>781</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16005,10 +15915,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>813</v>
+        <v>782</v>
       </c>
       <c r="F455" t="s">
-        <v>814</v>
+        <v>783</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16034,10 +15944,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>815</v>
+        <v>784</v>
       </c>
       <c r="F456" t="s">
-        <v>816</v>
+        <v>785</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -16063,18 +15973,47 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>817</v>
+        <v>786</v>
       </c>
       <c r="F457" t="s">
-        <v>818</v>
+        <v>787</v>
       </c>
       <c r="G457" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H457" t="s">
         <v>4</v>
       </c>
       <c r="I457" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="458" spans="1:9">
+      <c r="A458" s="1" t="n">
+        <v>456</v>
+      </c>
+      <c r="B458" t="s">
+        <v>0</v>
+      </c>
+      <c r="C458" t="s">
+        <v>1</v>
+      </c>
+      <c r="D458" t="n">
+        <v>457</v>
+      </c>
+      <c r="E458" t="s">
+        <v>786</v>
+      </c>
+      <c r="F458" t="s">
+        <v>788</v>
+      </c>
+      <c r="G458" t="n">
+        <v>1</v>
+      </c>
+      <c r="H458" t="s">
+        <v>4</v>
+      </c>
+      <c r="I458" t="n">
         <v>3</v>
       </c>
     </row>

--- a/xlsx/社会学_intext.xlsx
+++ b/xlsx/社会学_intext.xlsx
@@ -29,7 +29,7 @@
     <t>社会学理论</t>
   </si>
   <si>
-    <t>政策_政策_政治_社会学</t>
+    <t>体育运动_体育运动_文化_社会学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8%E5%8F%B2</t>
